--- a/olympus/M310.xlsx
+++ b/olympus/M310.xlsx
@@ -245,14 +245,14 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>2023-04-23 18:00:00</t>
+          <t>2023-04-23 17:00:00</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>0.13139091432094574</v>
+        <v>0.11710438877344131</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>0.2436242699623108</v>
+        <v>0.23655760288238525</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>0.0</v>
@@ -267,7 +267,7 @@
         <v>0.0</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>2.6214001178741455</v>
+        <v>2.667300224304199</v>
       </c>
       <c r="I3" s="2" t="n">
         <v>0.0</v>
@@ -276,10 +276,10 @@
         <v>50.89297866821289</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>-1.399332046508789</v>
+        <v>-1.399325966835022</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1002.4186401367188</v>
+        <v>1001.7506103515625</v>
       </c>
       <c r="M3" s="2" t="n">
         <v>0.0</v>
@@ -294,23 +294,23 @@
         <v>0.0</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>0.08301562070846558</v>
+        <v>9.980456670746207E-4</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>15.380455017089844</v>
+        <v>16.41189193725586</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>2023-04-23 20:00:00</t>
+          <t>2023-04-23 18:00:00</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>0.15996399521827698</v>
+        <v>0.13139091432094574</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0.25775760412216187</v>
+        <v>0.2436242699623108</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>0.0</v>
@@ -325,19 +325,19 @@
         <v>0.0</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>2.6723999977111816</v>
+        <v>2.6214001178741455</v>
       </c>
       <c r="I4" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>50.89299392700195</v>
+        <v>50.89297866821289</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>-1.3993523120880127</v>
+        <v>-1.399332046508789</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1003.754638671875</v>
+        <v>1002.4186401367188</v>
       </c>
       <c r="M4" s="2" t="n">
         <v>0.0</v>
@@ -352,23 +352,23 @@
         <v>0.0</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>-0.056477028876543045</v>
+        <v>0.08301562070846558</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>12.982377052307129</v>
+        <v>15.380455017089844</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>2023-04-23 22:00:00</t>
+          <t>2023-04-23 19:00:00</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>0.18853706121444702</v>
+        <v>0.14567746222019196</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0.2718909680843353</v>
+        <v>0.25069093704223633</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>0.0</v>
@@ -383,7 +383,7 @@
         <v>0.0</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>2.488800048828125</v>
+        <v>2.703000068664551</v>
       </c>
       <c r="I5" s="2" t="n">
         <v>0.0</v>
@@ -392,10 +392,10 @@
         <v>50.89298629760742</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>-1.3993580341339111</v>
+        <v>-1.3993477821350098</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1005.0906982421875</v>
+        <v>1003.0866088867188</v>
       </c>
       <c r="M5" s="2" t="n">
         <v>0.0</v>
@@ -410,23 +410,23 @@
         <v>0.0</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>0.09758147597312927</v>
+        <v>0.10000000149011612</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>12.389201164245605</v>
+        <v>13.896483421325684</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>2023-04-24 00:00:00</t>
+          <t>2023-04-23 20:00:00</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>0.011639582924544811</v>
+        <v>0.15996399521827698</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0.003467824775725603</v>
+        <v>0.25775760412216187</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>0.0</v>
@@ -441,19 +441,19 @@
         <v>0.0</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>2.4531002044677734</v>
+        <v>2.6723999977111816</v>
       </c>
       <c r="I6" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>50.89297866821289</v>
+        <v>50.89299392700195</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>-1.3993678092956543</v>
+        <v>-1.3993523120880127</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1006.4266967773438</v>
+        <v>1003.754638671875</v>
       </c>
       <c r="M6" s="2" t="n">
         <v>0.0</v>
@@ -468,23 +468,23 @@
         <v>0.0</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>0.0</v>
+        <v>-0.056477028876543045</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>11.544783592224121</v>
+        <v>12.982377052307129</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>2023-04-24 02:00:00</t>
+          <t>2023-04-23 21:00:00</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>0.03939477354288101</v>
+        <v>0.174250528216362</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>0.014404699206352234</v>
+        <v>0.2648242712020874</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>0.0</v>
@@ -499,19 +499,19 @@
         <v>0.0</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>2.4632999897003174</v>
+        <v>2.529600143432617</v>
       </c>
       <c r="I7" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>50.89298629760742</v>
+        <v>50.89299392700195</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>-1.3993666172027588</v>
+        <v>-1.399351716041565</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1007.2847900390625</v>
+        <v>1004.4226684570312</v>
       </c>
       <c r="M7" s="2" t="n">
         <v>0.0</v>
@@ -526,23 +526,23 @@
         <v>0.0</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>0.02750684693455696</v>
+        <v>0.0</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>10.595401763916016</v>
+        <v>12.593239784240723</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>2023-04-24 04:00:00</t>
+          <t>2023-04-23 22:00:00</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>0.06714996695518494</v>
+        <v>0.18853706121444702</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>0.025341572239995003</v>
+        <v>0.2718909680843353</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>0.0</v>
@@ -557,19 +557,19 @@
         <v>0.0</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>2.468400239944458</v>
+        <v>2.488800048828125</v>
       </c>
       <c r="I8" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>50.892967224121094</v>
+        <v>50.89298629760742</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>-1.3993674516677856</v>
+        <v>-1.3993580341339111</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1007.95751953125</v>
+        <v>1005.0906982421875</v>
       </c>
       <c r="M8" s="2" t="n">
         <v>0.0</v>
@@ -584,23 +584,23 @@
         <v>0.0</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>0.0</v>
+        <v>0.09758147597312927</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>9.95229721069336</v>
+        <v>12.389201164245605</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>2023-04-24 06:00:00</t>
+          <t>2023-04-23 23:00:00</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>0.09490516036748886</v>
+        <v>0.7882843017578125</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>0.03627844527363777</v>
+        <v>0.27895763516426086</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>0.0</v>
@@ -615,19 +615,19 @@
         <v>0.0</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>2.549999952316284</v>
+        <v>2.4735000133514404</v>
       </c>
       <c r="I9" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>50.89298629760742</v>
+        <v>50.89297866821289</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>-1.3993580341339111</v>
+        <v>-1.3993632793426514</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1008.6302490234375</v>
+        <v>1005.7586669921875</v>
       </c>
       <c r="M9" s="2" t="n">
         <v>0.0</v>
@@ -642,23 +642,23 @@
         <v>0.0</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>0.09280864149332047</v>
+        <v>0.018321866169571877</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>11.334779739379883</v>
+        <v>12.092794418334961</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>2023-04-24 08:00:00</t>
+          <t>2023-04-24 00:00:00</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>0.12266035377979279</v>
+        <v>0.011639582924544811</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>0.04721532016992569</v>
+        <v>0.003467824775725603</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>0.0</v>
@@ -673,19 +673,19 @@
         <v>0.0</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>2.6111998558044434</v>
+        <v>2.4531002044677734</v>
       </c>
       <c r="I10" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>50.89298629760742</v>
+        <v>50.89297866821289</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>-1.3993648290634155</v>
+        <v>-1.3993678092956543</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1009.3029174804688</v>
+        <v>1006.4266967773438</v>
       </c>
       <c r="M10" s="2" t="n">
         <v>0.0</v>
@@ -700,23 +700,23 @@
         <v>0.0</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>0.10000000149011612</v>
+        <v>0.0</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>15.287677764892578</v>
+        <v>11.544783592224121</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>2023-04-24 10:00:00</t>
+          <t>2023-04-24 01:00:00</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>0.1504155397415161</v>
+        <v>0.0255171786993742</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>0.05815219506621361</v>
+        <v>0.008936261758208275</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>0.0</v>
@@ -731,19 +731,19 @@
         <v>0.0</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>2.585700035095215</v>
+        <v>2.427600145339966</v>
       </c>
       <c r="I11" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>50.89297866821289</v>
+        <v>50.89298629760742</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>-1.399368405342102</v>
+        <v>-1.399368166923523</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1009.5623779296875</v>
+        <v>1006.9484252929688</v>
       </c>
       <c r="M11" s="2" t="n">
         <v>0.0</v>
@@ -758,23 +758,23 @@
         <v>0.0</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>0.0</v>
+        <v>0.07999908924102783</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>17.446483612060547</v>
+        <v>11.40822696685791</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>2023-04-24 12:00:00</t>
+          <t>2023-04-24 02:00:00</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>0.17817074060440063</v>
+        <v>0.03939477354288101</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>0.06908906996250153</v>
+        <v>0.014404699206352234</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>0.0</v>
@@ -789,7 +789,7 @@
         <v>0.0</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>2.6622002124786377</v>
+        <v>2.4632999897003174</v>
       </c>
       <c r="I12" s="2" t="n">
         <v>0.0</v>
@@ -798,10 +798,10 @@
         <v>50.89298629760742</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>-1.3993762731552124</v>
+        <v>-1.3993666172027588</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1009.7520751953125</v>
+        <v>1007.2847900390625</v>
       </c>
       <c r="M12" s="2" t="n">
         <v>0.0</v>
@@ -816,23 +816,23 @@
         <v>0.0</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>-0.026767613366246223</v>
+        <v>0.02750684693455696</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>16.02433967590332</v>
+        <v>10.595401763916016</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>2023-04-24 14:00:00</t>
+          <t>2023-04-24 03:00:00</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>0.04507580026984215</v>
+        <v>0.053272370249032974</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>0.08002594113349915</v>
+        <v>0.019873136654496193</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>0.0</v>
@@ -847,7 +847,7 @@
         <v>0.0</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>2.5602002143859863</v>
+        <v>2.4429001808166504</v>
       </c>
       <c r="I13" s="2" t="n">
         <v>0.0</v>
@@ -856,10 +856,10 @@
         <v>50.89298629760742</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>-1.3993597030639648</v>
+        <v>-1.3993641138076782</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1009.9417724609375</v>
+        <v>1007.6211547851562</v>
       </c>
       <c r="M13" s="2" t="n">
         <v>0.0</v>
@@ -874,23 +874,23 @@
         <v>0.0</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>0.10000000149011612</v>
+        <v>-0.09225567430257797</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>14.752022743225098</v>
+        <v>10.118642807006836</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>2023-04-24 16:00:00</t>
+          <t>2023-04-24 04:00:00</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>0.030071191489696503</v>
+        <v>0.06714996695518494</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>0.09096281975507736</v>
+        <v>0.025341572239995003</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>0.0</v>
@@ -905,19 +905,19 @@
         <v>0.0</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>2.6214001178741455</v>
+        <v>2.468400239944458</v>
       </c>
       <c r="I14" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>50.89297866821289</v>
+        <v>50.892967224121094</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>-1.3993550539016724</v>
+        <v>-1.3993674516677856</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1010.1315307617188</v>
+        <v>1007.95751953125</v>
       </c>
       <c r="M14" s="2" t="n">
         <v>0.0</v>
@@ -932,23 +932,23 @@
         <v>0.0</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>-0.10000000149011612</v>
+        <v>0.0</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>13.100000381469727</v>
+        <v>9.95229721069336</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>2023-04-24 18:00:00</t>
+          <t>2023-04-24 05:00:00</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>0.060167670249938965</v>
+        <v>0.0810275673866272</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>0.10189969092607498</v>
+        <v>0.030810009688138962</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>0.0</v>
@@ -963,7 +963,7 @@
         <v>0.0</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>2.585700035095215</v>
+        <v>2.4939000606536865</v>
       </c>
       <c r="I15" s="2" t="n">
         <v>0.0</v>
@@ -972,10 +972,10 @@
         <v>50.89298629760742</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>-1.3993502855300903</v>
+        <v>-1.399348258972168</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1010.449462890625</v>
+        <v>1008.2938842773438</v>
       </c>
       <c r="M15" s="2" t="n">
         <v>0.0</v>
@@ -990,23 +990,23 @@
         <v>0.0</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>0.0</v>
+        <v>-0.09715986996889114</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>12.163180351257324</v>
+        <v>9.86396598815918</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>2023-04-24 20:00:00</t>
+          <t>2023-04-24 06:00:00</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>0.09026414901018143</v>
+        <v>0.09490516036748886</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>0.1128365620970726</v>
+        <v>0.03627844527363777</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>0.0</v>
@@ -1021,19 +1021,19 @@
         <v>0.0</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>2.5806000232696533</v>
+        <v>2.549999952316284</v>
       </c>
       <c r="I16" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>50.89299392700195</v>
+        <v>50.89298629760742</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>-1.3993613719940186</v>
+        <v>-1.3993580341339111</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1011.7874755859375</v>
+        <v>1008.6302490234375</v>
       </c>
       <c r="M16" s="2" t="n">
         <v>0.0</v>
@@ -1048,23 +1048,23 @@
         <v>0.0</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>0.0</v>
+        <v>0.09280864149332047</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>10.447484016418457</v>
+        <v>11.334779739379883</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>2023-04-24 22:00:00</t>
+          <t>2023-04-24 07:00:00</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>0.12036063522100449</v>
+        <v>0.10878275334835052</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>0.12377344071865082</v>
+        <v>0.04174688458442688</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>0.0</v>
@@ -1079,19 +1079,19 @@
         <v>0.0</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>2.468400239944458</v>
+        <v>2.5448999404907227</v>
       </c>
       <c r="I17" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>50.89298629760742</v>
+        <v>50.892967224121094</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>-1.3993674516677856</v>
+        <v>-1.3993676900863647</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1013.12548828125</v>
+        <v>1008.9666137695312</v>
       </c>
       <c r="M17" s="2" t="n">
         <v>0.0</v>
@@ -1106,23 +1106,23 @@
         <v>0.0</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>0.2154024839401245</v>
+        <v>0.10000000149011612</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>10.186056137084961</v>
+        <v>13.67537784576416</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>2023-04-25 00:00:00</t>
+          <t>2023-04-24 08:00:00</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>0.15045711398124695</v>
+        <v>0.12266035377979279</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>0.13471031188964844</v>
+        <v>0.04721532016992569</v>
       </c>
       <c r="D18" s="2" t="n">
         <v>0.0</v>
@@ -1137,7 +1137,7 @@
         <v>0.0</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>2.488800048828125</v>
+        <v>2.6111998558044434</v>
       </c>
       <c r="I18" s="2" t="n">
         <v>0.0</v>
@@ -1146,10 +1146,10 @@
         <v>50.89298629760742</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>-1.3993693590164185</v>
+        <v>-1.3993648290634155</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1014.4635009765625</v>
+        <v>1009.3029174804688</v>
       </c>
       <c r="M18" s="2" t="n">
         <v>0.0</v>
@@ -1164,23 +1164,23 @@
         <v>0.0</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>0.02501487545669079</v>
+        <v>0.10000000149011612</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>10.451462745666504</v>
+        <v>15.287677764892578</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>2023-04-25 02:00:00</t>
+          <t>2023-04-24 09:00:00</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>0.18055360019207</v>
+        <v>0.13653795421123505</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>0.19439932703971863</v>
+        <v>0.0526837594807148</v>
       </c>
       <c r="D19" s="2" t="n">
         <v>0.0</v>
@@ -1195,19 +1195,19 @@
         <v>0.0</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>2.422499895095825</v>
+        <v>2.5704004764556885</v>
       </c>
       <c r="I19" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>50.89298629760742</v>
+        <v>50.89299392700195</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>-1.3993682861328125</v>
+        <v>-1.3993651866912842</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1015.6792602539062</v>
+        <v>1009.467529296875</v>
       </c>
       <c r="M19" s="2" t="n">
         <v>0.0</v>
@@ -1222,23 +1222,23 @@
         <v>0.0</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>0.05244159325957298</v>
+        <v>0.0</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>9.028172492980957</v>
+        <v>15.624059677124023</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>2023-04-25 04:00:00</t>
+          <t>2023-04-24 10:00:00</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>0.005399004556238651</v>
+        <v>0.1504155397415161</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>0.024145837873220444</v>
+        <v>0.05815219506621361</v>
       </c>
       <c r="D20" s="2" t="n">
         <v>0.0</v>
@@ -1253,7 +1253,7 @@
         <v>0.0</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>2.478600263595581</v>
+        <v>2.585700035095215</v>
       </c>
       <c r="I20" s="2" t="n">
         <v>0.0</v>
@@ -1262,10 +1262,10 @@
         <v>50.89297866821289</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>-1.3993693590164185</v>
+        <v>-1.399368405342102</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1016.7841796875</v>
+        <v>1009.5623779296875</v>
       </c>
       <c r="M20" s="2" t="n">
         <v>0.0</v>
@@ -1283,20 +1283,20 @@
         <v>0.0</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>8.576879501342773</v>
+        <v>17.446483612060547</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>2023-04-25 06:00:00</t>
+          <t>2023-04-24 11:00:00</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>0.03139204531908035</v>
+        <v>0.16429314017295837</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>0.04986375570297241</v>
+        <v>0.06362063437700272</v>
       </c>
       <c r="D21" s="2" t="n">
         <v>0.0</v>
@@ -1311,19 +1311,19 @@
         <v>0.0</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>2.5041003227233887</v>
+        <v>2.5806000232696533</v>
       </c>
       <c r="I21" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>50.89299392700195</v>
+        <v>50.89298629760742</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>-1.3993686437606812</v>
+        <v>-1.3993639945983887</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1017.8890991210938</v>
+        <v>1009.6572265625</v>
       </c>
       <c r="M21" s="2" t="n">
         <v>0.0</v>
@@ -1338,23 +1338,23 @@
         <v>0.0</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>0.08194027096033096</v>
+        <v>0.2940939664840698</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>9.197708129882812</v>
+        <v>14.700021743774414</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>2023-04-25 08:00:00</t>
+          <t>2023-04-24 12:00:00</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>0.05738508328795433</v>
+        <v>0.17817074060440063</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>0.07558167725801468</v>
+        <v>0.06908906996250153</v>
       </c>
       <c r="D22" s="2" t="n">
         <v>0.0</v>
@@ -1369,7 +1369,7 @@
         <v>0.0</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>2.555100202560425</v>
+        <v>2.6622002124786377</v>
       </c>
       <c r="I22" s="2" t="n">
         <v>0.0</v>
@@ -1378,10 +1378,10 @@
         <v>50.89298629760742</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>-1.3993616104125977</v>
+        <v>-1.3993762731552124</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1018.0221557617188</v>
+        <v>1009.7520751953125</v>
       </c>
       <c r="M22" s="2" t="n">
         <v>0.0</v>
@@ -1396,23 +1396,23 @@
         <v>0.0</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>0.0</v>
+        <v>-0.026767613366246223</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>11.776503562927246</v>
+        <v>16.02433967590332</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>2023-04-25 10:00:00</t>
+          <t>2023-04-24 13:00:00</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>0.08337812125682831</v>
+        <v>0.1920483261346817</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>0.10129959136247635</v>
+        <v>0.07455750554800034</v>
       </c>
       <c r="D23" s="2" t="n">
         <v>0.0</v>
@@ -1427,19 +1427,19 @@
         <v>0.0</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>2.585700035095215</v>
+        <v>2.5602002143859863</v>
       </c>
       <c r="I23" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>50.89297866821289</v>
+        <v>50.89298629760742</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>-1.3993606567382812</v>
+        <v>-1.3993706703186035</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1017.9259033203125</v>
+        <v>1009.846923828125</v>
       </c>
       <c r="M23" s="2" t="n">
         <v>0.0</v>
@@ -1454,23 +1454,23 @@
         <v>0.0</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>0.10000000149011612</v>
+        <v>-0.06771812587976456</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>13.451353073120117</v>
+        <v>14.751494407653809</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>2023-04-25 12:00:00</t>
+          <t>2023-04-24 14:00:00</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>0.10937116295099258</v>
+        <v>0.04507580026984215</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>0.12701751291751862</v>
+        <v>0.08002594113349915</v>
       </c>
       <c r="D24" s="2" t="n">
         <v>0.0</v>
@@ -1485,7 +1485,7 @@
         <v>0.0</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>2.6111998558044434</v>
+        <v>2.5602002143859863</v>
       </c>
       <c r="I24" s="2" t="n">
         <v>0.0</v>
@@ -1494,10 +1494,10 @@
         <v>50.89298629760742</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>-1.3993525505065918</v>
+        <v>-1.3993597030639648</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1017.8297119140625</v>
+        <v>1009.9417724609375</v>
       </c>
       <c r="M24" s="2" t="n">
         <v>0.0</v>
@@ -1512,23 +1512,23 @@
         <v>0.0</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>0.04996238648891449</v>
+        <v>0.10000000149011612</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>15.180598258972168</v>
+        <v>14.752022743225098</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>2023-04-25 14:00:00</t>
+          <t>2023-04-24 15:00:00</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>7.358168950304389E-4</v>
+        <v>0.015022951178252697</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>0.15273542702198029</v>
+        <v>0.08549437671899796</v>
       </c>
       <c r="D25" s="2" t="n">
         <v>0.0</v>
@@ -1543,19 +1543,19 @@
         <v>0.0</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>2.5806000232696533</v>
+        <v>2.4632999897003174</v>
       </c>
       <c r="I25" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>50.89298629760742</v>
+        <v>50.89299392700195</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>-1.3993552923202515</v>
+        <v>-1.3993585109710693</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1017.7335205078125</v>
+        <v>1010.0366821289062</v>
       </c>
       <c r="M25" s="2" t="n">
         <v>0.0</v>
@@ -1570,23 +1570,23 @@
         <v>0.0</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>0.1388721913099289</v>
+        <v>0.11666635423898697</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>16.544479370117188</v>
+        <v>12.620686531066895</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>2023-04-25 16:00:00</t>
+          <t>2023-04-24 16:00:00</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>0.029279667884111404</v>
+        <v>0.030071191489696503</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>0.17845334112644196</v>
+        <v>0.09096281975507736</v>
       </c>
       <c r="D26" s="2" t="n">
         <v>0.0</v>
@@ -1601,19 +1601,19 @@
         <v>0.0</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>2.5652999877929688</v>
+        <v>2.6214001178741455</v>
       </c>
       <c r="I26" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>50.89298629760742</v>
+        <v>50.89297866821289</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>-1.3993555307388306</v>
+        <v>-1.3993550539016724</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1017.6372680664062</v>
+        <v>1010.1315307617188</v>
       </c>
       <c r="M26" s="2" t="n">
         <v>0.0</v>
@@ -1631,20 +1631,20 @@
         <v>-0.10000000149011612</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>13.969120025634766</v>
+        <v>13.100000381469727</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>2023-04-25 18:00:00</t>
+          <t>2023-04-24 17:00:00</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>0.05782352015376091</v>
+        <v>0.045119430869817734</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>0.20417127013206482</v>
+        <v>0.09643125534057617</v>
       </c>
       <c r="D27" s="2" t="n">
         <v>0.0</v>
@@ -1659,19 +1659,19 @@
         <v>0.0</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>2.6214001178741455</v>
+        <v>2.595900297164917</v>
       </c>
       <c r="I27" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>50.89298629760742</v>
+        <v>50.89297866821289</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>-1.3993463516235352</v>
+        <v>-1.3993467092514038</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1017.5410766601562</v>
+        <v>1010.2263793945312</v>
       </c>
       <c r="M27" s="2" t="n">
         <v>0.0</v>
@@ -1686,23 +1686,23 @@
         <v>0.0</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>-0.06316156685352325</v>
+        <v>0.0</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>13.179746627807617</v>
+        <v>13.37007999420166</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>2023-04-25 20:00:00</t>
+          <t>2023-04-24 18:00:00</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>0.08636736869812012</v>
+        <v>0.060167670249938965</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>0.2298891842365265</v>
+        <v>0.10189969092607498</v>
       </c>
       <c r="D28" s="2" t="n">
         <v>0.0</v>
@@ -1717,7 +1717,7 @@
         <v>0.0</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>2.5041003227233887</v>
+        <v>2.585700035095215</v>
       </c>
       <c r="I28" s="2" t="n">
         <v>0.0</v>
@@ -1726,10 +1726,10 @@
         <v>50.89298629760742</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>-1.3993605375289917</v>
+        <v>-1.3993502855300903</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1017.4448852539062</v>
+        <v>1010.449462890625</v>
       </c>
       <c r="M28" s="2" t="n">
         <v>0.0</v>
@@ -1747,20 +1747,20 @@
         <v>0.0</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>11.13082504272461</v>
+        <v>12.163180351257324</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>2023-04-25 22:00:00</t>
+          <t>2023-04-24 19:00:00</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>0.11491122096776962</v>
+        <v>0.0752159133553505</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>0.25560709834098816</v>
+        <v>0.10736812651157379</v>
       </c>
       <c r="D29" s="2" t="n">
         <v>0.0</v>
@@ -1775,19 +1775,19 @@
         <v>0.0</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>2.4837000370025635</v>
+        <v>2.616300106048584</v>
       </c>
       <c r="I29" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>50.89297866821289</v>
+        <v>50.89299392700195</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>-1.3993558883666992</v>
+        <v>-1.3993526697158813</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1017.3486328125</v>
+        <v>1011.1184692382812</v>
       </c>
       <c r="M29" s="2" t="n">
         <v>0.0</v>
@@ -1802,23 +1802,23 @@
         <v>0.0</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>0.27996787428855896</v>
+        <v>0.10000000149011612</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>10.900185585021973</v>
+        <v>11.178132057189941</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>2023-04-26 00:00:00</t>
+          <t>2023-04-24 20:00:00</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>0.14345507323741913</v>
+        <v>0.09026414901018143</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>0.18239320814609528</v>
+        <v>0.1128365620970726</v>
       </c>
       <c r="D30" s="2" t="n">
         <v>0.0</v>
@@ -1833,19 +1833,19 @@
         <v>0.0</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>2.458199977874756</v>
+        <v>2.5806000232696533</v>
       </c>
       <c r="I30" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>50.89298629760742</v>
+        <v>50.89299392700195</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>-1.3993630409240723</v>
+        <v>-1.3993613719940186</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1017.25244140625</v>
+        <v>1011.7874755859375</v>
       </c>
       <c r="M30" s="2" t="n">
         <v>0.0</v>
@@ -1860,23 +1860,23 @@
         <v>0.0</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>0.4000000059604645</v>
+        <v>0.0</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>10.511549949645996</v>
+        <v>10.447484016418457</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>2023-04-26 02:00:00</t>
+          <t>2023-04-24 21:00:00</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>0.17199891805648804</v>
+        <v>0.10531239211559296</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>0.01201791875064373</v>
+        <v>0.11830500513315201</v>
       </c>
       <c r="D31" s="2" t="n">
         <v>0.0</v>
@@ -1891,19 +1891,19 @@
         <v>0.0</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>2.4327001571655273</v>
+        <v>2.5041003227233887</v>
       </c>
       <c r="I31" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>50.89298629760742</v>
+        <v>50.89299392700195</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>-1.3993622064590454</v>
+        <v>-1.3993630409240723</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1017.1253662109375</v>
+        <v>1012.4564819335938</v>
       </c>
       <c r="M31" s="2" t="n">
         <v>0.0</v>
@@ -1918,23 +1918,23 @@
         <v>0.0</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>0.10000000149011612</v>
+        <v>0.0</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>10.5</v>
+        <v>10.376350402832031</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>2023-04-26 04:00:00</t>
+          <t>2023-04-24 22:00:00</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
-        <v>0.20054277777671814</v>
+        <v>0.12036063522100449</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>0.026272855699062347</v>
+        <v>0.12377344071865082</v>
       </c>
       <c r="D32" s="2" t="n">
         <v>0.0</v>
@@ -1949,19 +1949,19 @@
         <v>0.0</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>2.478600263595581</v>
+        <v>2.468400239944458</v>
       </c>
       <c r="I32" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>50.892967224121094</v>
+        <v>50.89298629760742</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>-1.3993595838546753</v>
+        <v>-1.3993674516677856</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1016.9614868164062</v>
+        <v>1013.12548828125</v>
       </c>
       <c r="M32" s="2" t="n">
         <v>0.0</v>
@@ -1976,23 +1976,23 @@
         <v>0.0</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>0.10000000149011612</v>
+        <v>0.2154024839401245</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>10.60072135925293</v>
+        <v>10.186056137084961</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>2023-04-26 06:00:00</t>
+          <t>2023-04-24 23:00:00</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
-        <v>0.039554014801979065</v>
+        <v>0.13540887832641602</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>0.040527794510126114</v>
+        <v>0.12924186885356903</v>
       </c>
       <c r="D33" s="2" t="n">
         <v>0.0</v>
@@ -2007,19 +2007,19 @@
         <v>0.0</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>2.5142998695373535</v>
+        <v>2.478600263595581</v>
       </c>
       <c r="I33" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>50.89299392700195</v>
+        <v>50.89297866821289</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>-1.3993630409240723</v>
+        <v>-1.3993678092956543</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>1016.797607421875</v>
+        <v>1013.7944946289062</v>
       </c>
       <c r="M33" s="2" t="n">
         <v>0.0</v>
@@ -2034,23 +2034,23 @@
         <v>0.0</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>0.10000000149011612</v>
+        <v>0.2497999370098114</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>11.055878639221191</v>
+        <v>10.11121940612793</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>2023-04-26 08:00:00</t>
+          <t>2023-04-25 00:00:00</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>0.08625102788209915</v>
+        <v>0.15045711398124695</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>0.05478273332118988</v>
+        <v>0.13471031188964844</v>
       </c>
       <c r="D34" s="2" t="n">
         <v>0.0</v>
@@ -2065,7 +2065,7 @@
         <v>0.0</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>2.585700035095215</v>
+        <v>2.488800048828125</v>
       </c>
       <c r="I34" s="2" t="n">
         <v>0.0</v>
@@ -2074,10 +2074,10 @@
         <v>50.89298629760742</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>-1.3993589878082275</v>
+        <v>-1.3993693590164185</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>1016.6337280273438</v>
+        <v>1014.4635009765625</v>
       </c>
       <c r="M34" s="2" t="n">
         <v>0.0</v>
@@ -2092,23 +2092,23 @@
         <v>0.0</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>0.08375141024589539</v>
+        <v>0.02501487545669079</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>13.000847816467285</v>
+        <v>10.451462745666504</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>2023-04-26 10:00:00</t>
+          <t>2023-04-25 01:00:00</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
-        <v>0.13294802606105804</v>
+        <v>0.16550534963607788</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>0.06903766840696335</v>
+        <v>0.14017875492572784</v>
       </c>
       <c r="D35" s="2" t="n">
         <v>0.0</v>
@@ -2123,19 +2123,19 @@
         <v>0.0</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>2.575500249862671</v>
+        <v>2.4429001808166504</v>
       </c>
       <c r="I35" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>50.89298629760742</v>
+        <v>50.89299392700195</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>-1.3993549346923828</v>
+        <v>-1.3993699550628662</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>1016.4698486328125</v>
+        <v>1015.1268310546875</v>
       </c>
       <c r="M35" s="2" t="n">
         <v>0.0</v>
@@ -2150,23 +2150,23 @@
         <v>0.0</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>0.10000000149011612</v>
+        <v>0.0</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>13.687156677246094</v>
+        <v>10.012024879455566</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>2023-04-26 12:00:00</t>
+          <t>2023-04-25 02:00:00</t>
         </is>
       </c>
       <c r="B36" s="2" t="n">
-        <v>0.17964504659175873</v>
+        <v>0.18055360019207</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>0.08329260349273682</v>
+        <v>0.19439932703971863</v>
       </c>
       <c r="D36" s="2" t="n">
         <v>0.0</v>
@@ -2181,7 +2181,7 @@
         <v>0.0</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>2.6417999267578125</v>
+        <v>2.422499895095825</v>
       </c>
       <c r="I36" s="2" t="n">
         <v>0.0</v>
@@ -2190,10 +2190,10 @@
         <v>50.89298629760742</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>-1.3993556499481201</v>
+        <v>-1.3993682861328125</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>1016.3059692382812</v>
+        <v>1015.6792602539062</v>
       </c>
       <c r="M36" s="2" t="n">
         <v>0.0</v>
@@ -2208,23 +2208,23 @@
         <v>0.0</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>0.020920049399137497</v>
+        <v>0.05244159325957298</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>14.469820022583008</v>
+        <v>9.028172492980957</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>2023-04-26 14:00:00</t>
+          <t>2023-04-25 03:00:00</t>
         </is>
       </c>
       <c r="B37" s="2" t="n">
-        <v>0.06859642267227173</v>
+        <v>0.19560183584690094</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>0.09754754602909088</v>
+        <v>0.01128687895834446</v>
       </c>
       <c r="D37" s="2" t="n">
         <v>0.0</v>
@@ -2239,19 +2239,19 @@
         <v>0.0</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>2.555100202560425</v>
+        <v>2.468400239944458</v>
       </c>
       <c r="I37" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>50.89298629760742</v>
+        <v>50.89299392700195</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>-1.399351716041565</v>
+        <v>-1.3993678092956543</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>1016.14208984375</v>
+        <v>1016.2317504882812</v>
       </c>
       <c r="M37" s="2" t="n">
         <v>0.0</v>
@@ -2266,23 +2266,23 @@
         <v>0.0</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>0.1753830909729004</v>
+        <v>0.05210230499505997</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>14.9326753616333</v>
+        <v>8.061056137084961</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>2023-04-26 16:00:00</t>
+          <t>2023-04-25 04:00:00</t>
         </is>
       </c>
       <c r="B38" s="2" t="n">
-        <v>0.019983312115073204</v>
+        <v>0.005399004556238651</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>0.11180248111486435</v>
+        <v>0.024145837873220444</v>
       </c>
       <c r="D38" s="2" t="n">
         <v>0.0</v>
@@ -2297,19 +2297,19 @@
         <v>0.0</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>2.606100082397461</v>
+        <v>2.478600263595581</v>
       </c>
       <c r="I38" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>50.89298629760742</v>
+        <v>50.89297866821289</v>
       </c>
       <c r="K38" s="2" t="n">
-        <v>-1.399336338043213</v>
+        <v>-1.3993693590164185</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>1016.0173950195312</v>
+        <v>1016.7841796875</v>
       </c>
       <c r="M38" s="2" t="n">
         <v>0.0</v>
@@ -2324,23 +2324,23 @@
         <v>0.0</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>0.10000000149011612</v>
+        <v>0.0</v>
       </c>
       <c r="R38" s="2" t="n">
-        <v>15.300000190734863</v>
+        <v>8.576879501342773</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>2023-04-26 18:00:00</t>
+          <t>2023-04-25 05:00:00</t>
         </is>
       </c>
       <c r="B39" s="2" t="n">
-        <v>0.04557320103049278</v>
+        <v>0.018395524471998215</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>0.12605741620063782</v>
+        <v>0.03700479865074158</v>
       </c>
       <c r="D39" s="2" t="n">
         <v>0.0</v>
@@ -2355,19 +2355,19 @@
         <v>0.0</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>2.667300224304199</v>
+        <v>2.5041003227233887</v>
       </c>
       <c r="I39" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>50.89297866821289</v>
+        <v>50.89299392700195</v>
       </c>
       <c r="K39" s="2" t="n">
-        <v>-1.3993403911590576</v>
+        <v>-1.3993550539016724</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>1016.1483154296875</v>
+        <v>1017.336669921875</v>
       </c>
       <c r="M39" s="2" t="n">
         <v>0.0</v>
@@ -2382,23 +2382,23 @@
         <v>0.0</v>
       </c>
       <c r="Q39" s="2" t="n">
-        <v>0.02085694670677185</v>
+        <v>0.046671122312545776</v>
       </c>
       <c r="R39" s="2" t="n">
-        <v>14.943840026855469</v>
+        <v>8.097347259521484</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>2023-04-26 20:00:00</t>
+          <t>2023-04-25 06:00:00</t>
         </is>
       </c>
       <c r="B40" s="2" t="n">
-        <v>0.07116308808326721</v>
+        <v>0.03139204531908035</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>0.14031235873699188</v>
+        <v>0.04986375570297241</v>
       </c>
       <c r="D40" s="2" t="n">
         <v>0.0</v>
@@ -2413,19 +2413,19 @@
         <v>0.0</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>2.5806000232696533</v>
+        <v>2.5041003227233887</v>
       </c>
       <c r="I40" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>50.89298629760742</v>
+        <v>50.89299392700195</v>
       </c>
       <c r="K40" s="2" t="n">
-        <v>-1.3993535041809082</v>
+        <v>-1.3993686437606812</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>1016.2792358398438</v>
+        <v>1017.8890991210938</v>
       </c>
       <c r="M40" s="2" t="n">
         <v>0.0</v>
@@ -2440,23 +2440,23 @@
         <v>0.0</v>
       </c>
       <c r="Q40" s="2" t="n">
-        <v>0.04575295001268387</v>
+        <v>0.08194027096033096</v>
       </c>
       <c r="R40" s="2" t="n">
-        <v>14.254606246948242</v>
+        <v>9.197708129882812</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>2023-04-26 22:00:00</t>
+          <t>2023-04-25 07:00:00</t>
         </is>
       </c>
       <c r="B41" s="2" t="n">
-        <v>0.09675297141075134</v>
+        <v>0.04438856244087219</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>0.15456730127334595</v>
+        <v>0.06272271275520325</v>
       </c>
       <c r="D41" s="2" t="n">
         <v>0.0</v>
@@ -2471,7 +2471,7 @@
         <v>0.0</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>2.555100202560425</v>
+        <v>2.5142998695373535</v>
       </c>
       <c r="I41" s="2" t="n">
         <v>0.0</v>
@@ -2480,10 +2480,10 @@
         <v>50.89297866821289</v>
       </c>
       <c r="K41" s="2" t="n">
-        <v>-1.3993566036224365</v>
+        <v>-1.3993690013885498</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>1016.41015625</v>
+        <v>1018.0702514648438</v>
       </c>
       <c r="M41" s="2" t="n">
         <v>0.0</v>
@@ -2498,23 +2498,23 @@
         <v>0.0</v>
       </c>
       <c r="Q41" s="2" t="n">
-        <v>0.10000000149011612</v>
+        <v>-0.01929892785847187</v>
       </c>
       <c r="R41" s="2" t="n">
-        <v>13.441818237304688</v>
+        <v>10.7574462890625</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>2023-04-27 00:00:00</t>
+          <t>2023-04-25 08:00:00</t>
         </is>
       </c>
       <c r="B42" s="2" t="n">
-        <v>0.12234286218881607</v>
+        <v>0.05738508328795433</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>0.16882222890853882</v>
+        <v>0.07558167725801468</v>
       </c>
       <c r="D42" s="2" t="n">
         <v>0.0</v>
@@ -2529,7 +2529,7 @@
         <v>0.0</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>2.509200096130371</v>
+        <v>2.555100202560425</v>
       </c>
       <c r="I42" s="2" t="n">
         <v>0.0</v>
@@ -2538,10 +2538,10 @@
         <v>50.89298629760742</v>
       </c>
       <c r="K42" s="2" t="n">
-        <v>-1.3993582725524902</v>
+        <v>-1.3993616104125977</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>1016.5411376953125</v>
+        <v>1018.0221557617188</v>
       </c>
       <c r="M42" s="2" t="n">
         <v>0.0</v>
@@ -2559,20 +2559,20 @@
         <v>0.0</v>
       </c>
       <c r="R42" s="2" t="n">
-        <v>13.021595001220703</v>
+        <v>11.776503562927246</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>2023-04-27 02:00:00</t>
+          <t>2023-04-25 09:00:00</t>
         </is>
       </c>
       <c r="B43" s="2" t="n">
-        <v>0.1479327529668808</v>
+        <v>0.07038160413503647</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>0.18307717144489288</v>
+        <v>0.08844063431024551</v>
       </c>
       <c r="D43" s="2" t="n">
         <v>0.0</v>
@@ -2587,7 +2587,7 @@
         <v>0.0</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>2.4327001571655273</v>
+        <v>2.555100202560425</v>
       </c>
       <c r="I43" s="2" t="n">
         <v>0.0</v>
@@ -2596,10 +2596,10 @@
         <v>50.89299392700195</v>
       </c>
       <c r="K43" s="2" t="n">
-        <v>-1.3993622064590454</v>
+        <v>-1.3993619680404663</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>1016.2317504882812</v>
+        <v>1017.9739990234375</v>
       </c>
       <c r="M43" s="2" t="n">
         <v>0.0</v>
@@ -2614,23 +2614,23 @@
         <v>0.0</v>
       </c>
       <c r="Q43" s="2" t="n">
-        <v>0.10000000149011612</v>
+        <v>0.03617363050580025</v>
       </c>
       <c r="R43" s="2" t="n">
-        <v>13.0734224319458</v>
+        <v>12.477219581604004</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>2023-04-27 04:00:00</t>
+          <t>2023-04-25 10:00:00</t>
         </is>
       </c>
       <c r="B44" s="2" t="n">
-        <v>0.17352263629436493</v>
+        <v>0.08337812125682831</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>0.19733211398124695</v>
+        <v>0.10129959136247635</v>
       </c>
       <c r="D44" s="2" t="n">
         <v>0.0</v>
@@ -2645,7 +2645,7 @@
         <v>0.0</v>
       </c>
       <c r="H44" s="2" t="n">
-        <v>2.4531002044677734</v>
+        <v>2.585700035095215</v>
       </c>
       <c r="I44" s="2" t="n">
         <v>0.0</v>
@@ -2654,10 +2654,10 @@
         <v>50.89297866821289</v>
       </c>
       <c r="K44" s="2" t="n">
-        <v>-1.3993635177612305</v>
+        <v>-1.3993606567382812</v>
       </c>
       <c r="L44" s="2" t="n">
-        <v>1015.562744140625</v>
+        <v>1017.9259033203125</v>
       </c>
       <c r="M44" s="2" t="n">
         <v>0.0</v>
@@ -2672,23 +2672,23 @@
         <v>0.0</v>
       </c>
       <c r="Q44" s="2" t="n">
-        <v>0.1338932067155838</v>
+        <v>0.10000000149011612</v>
       </c>
       <c r="R44" s="2" t="n">
-        <v>13.33124828338623</v>
+        <v>13.451353073120117</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>2023-04-27 06:00:00</t>
+          <t>2023-04-25 11:00:00</t>
         </is>
       </c>
       <c r="B45" s="2" t="n">
-        <v>0.19911251962184906</v>
+        <v>0.09637464582920074</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>0.21158704161643982</v>
+        <v>0.11415855586528778</v>
       </c>
       <c r="D45" s="2" t="n">
         <v>0.0</v>
@@ -2703,7 +2703,7 @@
         <v>0.0</v>
       </c>
       <c r="H45" s="2" t="n">
-        <v>2.509200096130371</v>
+        <v>2.606100082397461</v>
       </c>
       <c r="I45" s="2" t="n">
         <v>0.0</v>
@@ -2712,10 +2712,10 @@
         <v>50.89298629760742</v>
       </c>
       <c r="K45" s="2" t="n">
-        <v>-1.39936101436615</v>
+        <v>-1.3993486166000366</v>
       </c>
       <c r="L45" s="2" t="n">
-        <v>1014.8936767578125</v>
+        <v>1017.8778076171875</v>
       </c>
       <c r="M45" s="2" t="n">
         <v>0.0</v>
@@ -2730,23 +2730,23 @@
         <v>0.0</v>
       </c>
       <c r="Q45" s="2" t="n">
-        <v>0.10000000149011612</v>
+        <v>-0.0032615994568914175</v>
       </c>
       <c r="R45" s="2" t="n">
-        <v>14.029802322387695</v>
+        <v>13.62513256072998</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>2023-04-27 08:00:00</t>
+          <t>2023-04-25 12:00:00</t>
         </is>
       </c>
       <c r="B46" s="2" t="n">
-        <v>0.004100581631064415</v>
+        <v>0.10937116295099258</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>0.22584198415279388</v>
+        <v>0.12701751291751862</v>
       </c>
       <c r="D46" s="2" t="n">
         <v>0.0</v>
@@ -2761,19 +2761,19 @@
         <v>0.0</v>
       </c>
       <c r="H46" s="2" t="n">
-        <v>2.6214001178741455</v>
+        <v>2.6111998558044434</v>
       </c>
       <c r="I46" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J46" s="2" t="n">
-        <v>50.89299392700195</v>
+        <v>50.89298629760742</v>
       </c>
       <c r="K46" s="2" t="n">
-        <v>-1.3993536233901978</v>
+        <v>-1.3993525505065918</v>
       </c>
       <c r="L46" s="2" t="n">
-        <v>1014.2246704101562</v>
+        <v>1017.8297119140625</v>
       </c>
       <c r="M46" s="2" t="n">
         <v>0.0</v>
@@ -2788,23 +2788,23 @@
         <v>0.0</v>
       </c>
       <c r="Q46" s="2" t="n">
-        <v>0.10000000149011612</v>
+        <v>0.04996238648891449</v>
       </c>
       <c r="R46" s="2" t="n">
-        <v>14.573504447937012</v>
+        <v>15.180598258972168</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>2023-04-27 10:00:00</t>
+          <t>2023-04-25 13:00:00</t>
         </is>
       </c>
       <c r="B47" s="2" t="n">
-        <v>0.009646943770349026</v>
+        <v>0.12236768007278442</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>0.24009692668914795</v>
+        <v>0.13987646996974945</v>
       </c>
       <c r="D47" s="2" t="n">
         <v>0.0</v>
@@ -2819,19 +2819,19 @@
         <v>0.0</v>
       </c>
       <c r="H47" s="2" t="n">
-        <v>2.606100082397461</v>
+        <v>2.529600143432617</v>
       </c>
       <c r="I47" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J47" s="2" t="n">
-        <v>50.89297866821289</v>
+        <v>50.89298629760742</v>
       </c>
       <c r="K47" s="2" t="n">
-        <v>-1.3993512392044067</v>
+        <v>-1.3993548154830933</v>
       </c>
       <c r="L47" s="2" t="n">
-        <v>1013.5556640625</v>
+        <v>1017.7816162109375</v>
       </c>
       <c r="M47" s="2" t="n">
         <v>0.0</v>
@@ -2846,23 +2846,23 @@
         <v>0.0</v>
       </c>
       <c r="Q47" s="2" t="n">
-        <v>0.06874168664216995</v>
+        <v>0.10000000149011612</v>
       </c>
       <c r="R47" s="2" t="n">
-        <v>15.773896217346191</v>
+        <v>17.04209327697754</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>2023-04-27 12:00:00</t>
+          <t>2023-04-25 14:00:00</t>
         </is>
       </c>
       <c r="B48" s="2" t="n">
-        <v>0.015193304978311062</v>
+        <v>7.358168950304389E-4</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>0.2543518543243408</v>
+        <v>0.15273542702198029</v>
       </c>
       <c r="D48" s="2" t="n">
         <v>0.0</v>
@@ -2877,7 +2877,7 @@
         <v>0.0</v>
       </c>
       <c r="H48" s="2" t="n">
-        <v>2.585700035095215</v>
+        <v>2.5806000232696533</v>
       </c>
       <c r="I48" s="2" t="n">
         <v>0.0</v>
@@ -2886,10 +2886,10 @@
         <v>50.89298629760742</v>
       </c>
       <c r="K48" s="2" t="n">
-        <v>-1.3993587493896484</v>
+        <v>-1.3993552923202515</v>
       </c>
       <c r="L48" s="2" t="n">
-        <v>1012.768310546875</v>
+        <v>1017.7335205078125</v>
       </c>
       <c r="M48" s="2" t="n">
         <v>0.0</v>
@@ -2904,23 +2904,23 @@
         <v>0.0</v>
       </c>
       <c r="Q48" s="2" t="n">
-        <v>0.10000000149011612</v>
+        <v>0.1388721913099289</v>
       </c>
       <c r="R48" s="2" t="n">
-        <v>16.2801570892334</v>
+        <v>16.544479370117188</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>2023-04-27 14:00:00</t>
+          <t>2023-04-25 15:00:00</t>
         </is>
       </c>
       <c r="B49" s="2" t="n">
-        <v>0.020739667117595673</v>
+        <v>0.015007742680609226</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>0.2686067819595337</v>
+        <v>0.16559438407421112</v>
       </c>
       <c r="D49" s="2" t="n">
         <v>0.0</v>
@@ -2935,19 +2935,19 @@
         <v>0.0</v>
       </c>
       <c r="H49" s="2" t="n">
-        <v>2.427600145339966</v>
+        <v>2.5245001316070557</v>
       </c>
       <c r="I49" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J49" s="2" t="n">
-        <v>50.89298629760742</v>
+        <v>50.89299392700195</v>
       </c>
       <c r="K49" s="2" t="n">
-        <v>-1.3993489742279053</v>
+        <v>-1.3993597030639648</v>
       </c>
       <c r="L49" s="2" t="n">
-        <v>1011.401123046875</v>
+        <v>1017.6853637695312</v>
       </c>
       <c r="M49" s="2" t="n">
         <v>0.0</v>
@@ -2962,29 +2962,29 @@
         <v>0.0</v>
       </c>
       <c r="Q49" s="2" t="n">
-        <v>0.5710070133209229</v>
+        <v>0.08665861934423447</v>
       </c>
       <c r="R49" s="2" t="n">
-        <v>14.881233215332031</v>
+        <v>16.541576385498047</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>2023-04-27 16:00:00</t>
+          <t>2023-04-25 16:00:00</t>
         </is>
       </c>
       <c r="B50" s="2" t="n">
-        <v>0.02628602832555771</v>
+        <v>0.029279667884111404</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>0.05589568614959717</v>
+        <v>0.17845334112644196</v>
       </c>
       <c r="D50" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>0.6116520166397095</v>
+        <v>0.0</v>
       </c>
       <c r="F50" s="2" t="n">
         <v>0.0</v>
@@ -2993,19 +2993,19 @@
         <v>0.0</v>
       </c>
       <c r="H50" s="2" t="n">
-        <v>2.0399999618530273</v>
+        <v>2.5652999877929688</v>
       </c>
       <c r="I50" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J50" s="2" t="n">
-        <v>50.89299392700195</v>
+        <v>50.89298629760742</v>
       </c>
       <c r="K50" s="2" t="n">
-        <v>-1.3993531465530396</v>
+        <v>-1.3993555307388306</v>
       </c>
       <c r="L50" s="2" t="n">
-        <v>1010.0338745117188</v>
+        <v>1017.6372680664062</v>
       </c>
       <c r="M50" s="2" t="n">
         <v>0.0</v>
@@ -3020,50 +3020,50 @@
         <v>0.0</v>
       </c>
       <c r="Q50" s="2" t="n">
-        <v>0.2600802779197693</v>
+        <v>-0.10000000149011612</v>
       </c>
       <c r="R50" s="2" t="n">
-        <v>14.46216106414795</v>
+        <v>13.969120025634766</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>2023-04-27 18:00:00</t>
+          <t>2023-04-25 17:00:00</t>
         </is>
       </c>
       <c r="B51" s="2" t="n">
-        <v>0.031832389533519745</v>
+        <v>0.04355159401893616</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>0.12109903246164322</v>
+        <v>0.19131231307983398</v>
       </c>
       <c r="D51" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>0.686341404914856</v>
+        <v>0.0</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>0.678824782371521</v>
+        <v>0.0</v>
       </c>
       <c r="G51" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H51" s="2" t="n">
-        <v>2.1114001274108887</v>
+        <v>2.6010000705718994</v>
       </c>
       <c r="I51" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J51" s="2" t="n">
-        <v>50.89925765991211</v>
+        <v>50.89297866821289</v>
       </c>
       <c r="K51" s="2" t="n">
-        <v>-1.413420557975769</v>
+        <v>-1.3993465900421143</v>
       </c>
       <c r="L51" s="2" t="n">
-        <v>1008.6666259765625</v>
+        <v>1017.5891723632812</v>
       </c>
       <c r="M51" s="2" t="n">
         <v>0.0</v>
@@ -3075,26 +3075,26 @@
         <v>0.0</v>
       </c>
       <c r="P51" s="2" t="n">
-        <v>0.6000000238418579</v>
+        <v>0.0</v>
       </c>
       <c r="Q51" s="2" t="n">
-        <v>-0.1835508942604065</v>
+        <v>0.12062323093414307</v>
       </c>
       <c r="R51" s="2" t="n">
-        <v>15.028084754943848</v>
+        <v>14.483766555786133</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>2023-04-27 20:00:00</t>
+          <t>2023-04-25 18:00:00</t>
         </is>
       </c>
       <c r="B52" s="2" t="n">
-        <v>0.03737875446677208</v>
+        <v>0.05782352015376091</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>0.18630237877368927</v>
+        <v>0.20417127013206482</v>
       </c>
       <c r="D52" s="2" t="n">
         <v>0.0</v>
@@ -3109,19 +3109,19 @@
         <v>0.0</v>
       </c>
       <c r="H52" s="2" t="n">
-        <v>2.555100202560425</v>
+        <v>2.6214001178741455</v>
       </c>
       <c r="I52" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J52" s="2" t="n">
-        <v>50.899269104003906</v>
+        <v>50.89298629760742</v>
       </c>
       <c r="K52" s="2" t="n">
-        <v>-1.4134072065353394</v>
+        <v>-1.3993463516235352</v>
       </c>
       <c r="L52" s="2" t="n">
-        <v>1008.3460693359375</v>
+        <v>1017.5410766601562</v>
       </c>
       <c r="M52" s="2" t="n">
         <v>0.0</v>
@@ -3136,29 +3136,29 @@
         <v>0.0</v>
       </c>
       <c r="Q52" s="2" t="n">
-        <v>0.30436113476753235</v>
+        <v>-0.06316156685352325</v>
       </c>
       <c r="R52" s="2" t="n">
-        <v>15.62476634979248</v>
+        <v>13.179746627807617</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>2023-04-27 22:00:00</t>
+          <t>2023-04-25 19:00:00</t>
         </is>
       </c>
       <c r="B53" s="2" t="n">
-        <v>0.042925115674734116</v>
+        <v>0.07209544628858566</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>0.4274901747703552</v>
+        <v>0.21703022718429565</v>
       </c>
       <c r="D53" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>1.0470571517944336</v>
+        <v>0.0</v>
       </c>
       <c r="F53" s="2" t="n">
         <v>0.0</v>
@@ -3167,19 +3167,19 @@
         <v>0.0</v>
       </c>
       <c r="H53" s="2" t="n">
-        <v>0.0</v>
+        <v>2.616300106048584</v>
       </c>
       <c r="I53" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J53" s="2" t="n">
-        <v>50.89925003051758</v>
+        <v>50.89298629760742</v>
       </c>
       <c r="K53" s="2" t="n">
-        <v>-1.4134163856506348</v>
+        <v>-1.399355411529541</v>
       </c>
       <c r="L53" s="2" t="n">
-        <v>1008.567626953125</v>
+        <v>1017.4929809570312</v>
       </c>
       <c r="M53" s="2" t="n">
         <v>0.0</v>
@@ -3194,29 +3194,29 @@
         <v>0.0</v>
       </c>
       <c r="Q53" s="2" t="n">
-        <v>0.07935988157987595</v>
+        <v>-0.06551644951105118</v>
       </c>
       <c r="R53" s="2" t="n">
-        <v>15.788928985595703</v>
+        <v>12.131083488464355</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>2023-04-28 00:00:00</t>
+          <t>2023-04-25 20:00:00</t>
         </is>
       </c>
       <c r="B54" s="2" t="n">
-        <v>0.04847147688269615</v>
+        <v>0.08636736869812012</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>0.3401836156845093</v>
+        <v>0.2298891842365265</v>
       </c>
       <c r="D54" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>1.2871917486190796</v>
+        <v>0.0</v>
       </c>
       <c r="F54" s="2" t="n">
         <v>0.0</v>
@@ -3225,19 +3225,19 @@
         <v>0.0</v>
       </c>
       <c r="H54" s="2" t="n">
-        <v>0.0</v>
+        <v>2.5041003227233887</v>
       </c>
       <c r="I54" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J54" s="2" t="n">
-        <v>50.89925003051758</v>
+        <v>50.89298629760742</v>
       </c>
       <c r="K54" s="2" t="n">
-        <v>-1.4134206771850586</v>
+        <v>-1.3993605375289917</v>
       </c>
       <c r="L54" s="2" t="n">
-        <v>1008.7892456054688</v>
+        <v>1017.4448852539062</v>
       </c>
       <c r="M54" s="2" t="n">
         <v>0.0</v>
@@ -3252,29 +3252,29 @@
         <v>0.0</v>
       </c>
       <c r="Q54" s="2" t="n">
-        <v>0.09356705844402313</v>
+        <v>0.0</v>
       </c>
       <c r="R54" s="2" t="n">
-        <v>15.79616641998291</v>
+        <v>11.13082504272461</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>2023-04-28 02:00:00</t>
+          <t>2023-04-25 21:00:00</t>
         </is>
       </c>
       <c r="B55" s="2" t="n">
-        <v>0.05401783809065819</v>
+        <v>0.10063929855823517</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>0.27275171875953674</v>
+        <v>0.24274814128875732</v>
       </c>
       <c r="D55" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>1.291879653930664</v>
+        <v>0.0</v>
       </c>
       <c r="F55" s="2" t="n">
         <v>0.0</v>
@@ -3283,19 +3283,19 @@
         <v>0.0</v>
       </c>
       <c r="H55" s="2" t="n">
-        <v>0.0</v>
+        <v>2.585700035095215</v>
       </c>
       <c r="I55" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J55" s="2" t="n">
-        <v>50.89925765991211</v>
+        <v>50.89298629760742</v>
       </c>
       <c r="K55" s="2" t="n">
-        <v>-1.4134293794631958</v>
+        <v>-1.399356484413147</v>
       </c>
       <c r="L55" s="2" t="n">
-        <v>1009.0108642578125</v>
+        <v>1017.396728515625</v>
       </c>
       <c r="M55" s="2" t="n">
         <v>0.0</v>
@@ -3310,29 +3310,29 @@
         <v>0.0</v>
       </c>
       <c r="Q55" s="2" t="n">
-        <v>0.10000000149011612</v>
+        <v>0.17218750715255737</v>
       </c>
       <c r="R55" s="2" t="n">
-        <v>15.569201469421387</v>
+        <v>11.001973152160645</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>2023-04-28 04:00:00</t>
+          <t>2023-04-25 22:00:00</t>
         </is>
       </c>
       <c r="B56" s="2" t="n">
-        <v>0.040975116193294525</v>
+        <v>0.11491122096776962</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>0.256955087184906</v>
+        <v>0.25560709834098816</v>
       </c>
       <c r="D56" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>1.3607802391052246</v>
+        <v>0.0</v>
       </c>
       <c r="F56" s="2" t="n">
         <v>0.0</v>
@@ -3341,19 +3341,19 @@
         <v>0.0</v>
       </c>
       <c r="H56" s="2" t="n">
-        <v>0.0</v>
+        <v>2.4837000370025635</v>
       </c>
       <c r="I56" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J56" s="2" t="n">
-        <v>50.899234771728516</v>
+        <v>50.89297866821289</v>
       </c>
       <c r="K56" s="2" t="n">
-        <v>-1.4134348630905151</v>
+        <v>-1.3993558883666992</v>
       </c>
       <c r="L56" s="2" t="n">
-        <v>1009.232421875</v>
+        <v>1017.3486328125</v>
       </c>
       <c r="M56" s="2" t="n">
         <v>0.0</v>
@@ -3368,29 +3368,29 @@
         <v>0.0</v>
       </c>
       <c r="Q56" s="2" t="n">
-        <v>0.27362093329429626</v>
+        <v>0.27996787428855896</v>
       </c>
       <c r="R56" s="2" t="n">
-        <v>15.43332290649414</v>
+        <v>10.900185585021973</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>2023-04-28 06:00:00</t>
+          <t>2023-04-25 23:00:00</t>
         </is>
       </c>
       <c r="B57" s="2" t="n">
-        <v>0.0981881320476532</v>
+        <v>0.12918314337730408</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>0.3983801603317261</v>
+        <v>0.268466055393219</v>
       </c>
       <c r="D57" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>1.3244024515151978</v>
+        <v>0.0</v>
       </c>
       <c r="F57" s="2" t="n">
         <v>0.0</v>
@@ -3399,19 +3399,19 @@
         <v>0.0</v>
       </c>
       <c r="H57" s="2" t="n">
-        <v>0.0</v>
+        <v>2.4429001808166504</v>
       </c>
       <c r="I57" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J57" s="2" t="n">
-        <v>50.89924240112305</v>
+        <v>50.89298629760742</v>
       </c>
       <c r="K57" s="2" t="n">
-        <v>-1.4134303331375122</v>
+        <v>-1.3993630409240723</v>
       </c>
       <c r="L57" s="2" t="n">
-        <v>1009.4540405273438</v>
+        <v>1017.300537109375</v>
       </c>
       <c r="M57" s="2" t="n">
         <v>0.0</v>
@@ -3426,29 +3426,29 @@
         <v>0.0</v>
       </c>
       <c r="Q57" s="2" t="n">
-        <v>0.2899429202079773</v>
+        <v>0.3874639868736267</v>
       </c>
       <c r="R57" s="2" t="n">
-        <v>15.702547073364258</v>
+        <v>10.705952644348145</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>2023-04-28 08:00:00</t>
+          <t>2023-04-26 00:00:00</t>
         </is>
       </c>
       <c r="B58" s="2" t="n">
-        <v>0.15540114045143127</v>
+        <v>0.14345507323741913</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>0.4231158196926117</v>
+        <v>0.18239320814609528</v>
       </c>
       <c r="D58" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>1.5543285608291626</v>
+        <v>0.0</v>
       </c>
       <c r="F58" s="2" t="n">
         <v>0.0</v>
@@ -3457,19 +3457,19 @@
         <v>0.0</v>
       </c>
       <c r="H58" s="2" t="n">
-        <v>0.0</v>
+        <v>2.458199977874756</v>
       </c>
       <c r="I58" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J58" s="2" t="n">
-        <v>50.89925765991211</v>
+        <v>50.89298629760742</v>
       </c>
       <c r="K58" s="2" t="n">
-        <v>-1.4134336709976196</v>
+        <v>-1.3993630409240723</v>
       </c>
       <c r="L58" s="2" t="n">
-        <v>1010.2408447265625</v>
+        <v>1017.25244140625</v>
       </c>
       <c r="M58" s="2" t="n">
         <v>0.0</v>
@@ -3484,29 +3484,29 @@
         <v>0.0</v>
       </c>
       <c r="Q58" s="2" t="n">
-        <v>0.07129384577274323</v>
+        <v>0.4000000059604645</v>
       </c>
       <c r="R58" s="2" t="n">
-        <v>16.21296501159668</v>
+        <v>10.511549949645996</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>2023-04-28 10:00:00</t>
+          <t>2023-04-26 01:00:00</t>
         </is>
       </c>
       <c r="B59" s="2" t="n">
-        <v>0.799624502658844</v>
+        <v>0.15772700309753418</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>0.4166346788406372</v>
+        <v>0.004890449810773134</v>
       </c>
       <c r="D59" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>1.4247844219207764</v>
+        <v>0.0</v>
       </c>
       <c r="F59" s="2" t="n">
         <v>0.0</v>
@@ -3515,19 +3515,19 @@
         <v>0.0</v>
       </c>
       <c r="H59" s="2" t="n">
-        <v>0.0</v>
+        <v>2.4429001808166504</v>
       </c>
       <c r="I59" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J59" s="2" t="n">
-        <v>50.89924240112305</v>
+        <v>50.89297866821289</v>
       </c>
       <c r="K59" s="2" t="n">
-        <v>-1.4134396314620972</v>
+        <v>-1.3993518352508545</v>
       </c>
       <c r="L59" s="2" t="n">
-        <v>1011.175537109375</v>
+        <v>1017.204345703125</v>
       </c>
       <c r="M59" s="2" t="n">
         <v>0.0</v>
@@ -3542,23 +3542,23 @@
         <v>0.0</v>
       </c>
       <c r="Q59" s="2" t="n">
-        <v>0.0</v>
+        <v>0.031048884615302086</v>
       </c>
       <c r="R59" s="2" t="n">
-        <v>17.41655731201172</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>2023-04-28 12:00:00</t>
+          <t>2023-04-26 02:00:00</t>
         </is>
       </c>
       <c r="B60" s="2" t="n">
-        <v>0.034390855580568314</v>
+        <v>0.17199891805648804</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>0.35877725481987</v>
+        <v>0.01201791875064373</v>
       </c>
       <c r="D60" s="2" t="n">
         <v>0.0</v>
@@ -3567,25 +3567,25 @@
         <v>0.0</v>
       </c>
       <c r="F60" s="2" t="n">
-        <v>1.5405552387237549</v>
+        <v>0.0</v>
       </c>
       <c r="G60" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H60" s="2" t="n">
-        <v>0.0</v>
+        <v>2.4327001571655273</v>
       </c>
       <c r="I60" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J60" s="2" t="n">
-        <v>50.89925765991211</v>
+        <v>50.89298629760742</v>
       </c>
       <c r="K60" s="2" t="n">
-        <v>-1.4134304523468018</v>
+        <v>-1.3993622064590454</v>
       </c>
       <c r="L60" s="2" t="n">
-        <v>1012.1102294921875</v>
+        <v>1017.1253662109375</v>
       </c>
       <c r="M60" s="2" t="n">
         <v>0.0</v>
@@ -3603,20 +3603,20 @@
         <v>0.10000000149011612</v>
       </c>
       <c r="R60" s="2" t="n">
-        <v>20.1341495513916</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>2023-04-28 14:00:00</t>
+          <t>2023-04-26 03:00:00</t>
         </is>
       </c>
       <c r="B61" s="2" t="n">
-        <v>0.07262101769447327</v>
+        <v>0.1862708479166031</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>0.304769366979599</v>
+        <v>0.019145388156175613</v>
       </c>
       <c r="D61" s="2" t="n">
         <v>0.0</v>
@@ -3625,25 +3625,25 @@
         <v>0.0</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>1.3221733570098877</v>
+        <v>0.0</v>
       </c>
       <c r="G61" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H61" s="2" t="n">
-        <v>0.0</v>
+        <v>2.4327001571655273</v>
       </c>
       <c r="I61" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J61" s="2" t="n">
-        <v>50.89925003051758</v>
+        <v>50.89299392700195</v>
       </c>
       <c r="K61" s="2" t="n">
-        <v>-1.4134132862091064</v>
+        <v>-1.3993619680404663</v>
       </c>
       <c r="L61" s="2" t="n">
-        <v>1013.044921875</v>
+        <v>1017.04345703125</v>
       </c>
       <c r="M61" s="2" t="n">
         <v>0.0</v>
@@ -3658,23 +3658,23 @@
         <v>0.0</v>
       </c>
       <c r="Q61" s="2" t="n">
-        <v>0.10000000149011612</v>
+        <v>0.07374374568462372</v>
       </c>
       <c r="R61" s="2" t="n">
-        <v>21.600000381469727</v>
+        <v>10.525199890136719</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>2023-04-28 16:00:00</t>
+          <t>2023-04-26 04:00:00</t>
         </is>
       </c>
       <c r="B62" s="2" t="n">
-        <v>0.11085117608308792</v>
+        <v>0.20054277777671814</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>0.400255024433136</v>
+        <v>0.026272855699062347</v>
       </c>
       <c r="D62" s="2" t="n">
         <v>0.0</v>
@@ -3683,25 +3683,25 @@
         <v>0.0</v>
       </c>
       <c r="F62" s="2" t="n">
-        <v>1.4178481101989746</v>
+        <v>0.0</v>
       </c>
       <c r="G62" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H62" s="2" t="n">
-        <v>0.0</v>
+        <v>2.478600263595581</v>
       </c>
       <c r="I62" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J62" s="2" t="n">
-        <v>50.89925765991211</v>
+        <v>50.892967224121094</v>
       </c>
       <c r="K62" s="2" t="n">
-        <v>-1.413415551185608</v>
+        <v>-1.3993595838546753</v>
       </c>
       <c r="L62" s="2" t="n">
-        <v>1013.9796142578125</v>
+        <v>1016.9614868164062</v>
       </c>
       <c r="M62" s="2" t="n">
         <v>0.0</v>
@@ -3716,23 +3716,23 @@
         <v>0.0</v>
       </c>
       <c r="Q62" s="2" t="n">
-        <v>-0.12142742425203323</v>
+        <v>0.10000000149011612</v>
       </c>
       <c r="R62" s="2" t="n">
-        <v>21.654499053955078</v>
+        <v>10.60072135925293</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>2023-04-28 18:00:00</t>
+          <t>2023-04-26 05:00:00</t>
         </is>
       </c>
       <c r="B63" s="2" t="n">
-        <v>0.14908133447170258</v>
+        <v>0.01620551012456417</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>0.38847672939300537</v>
+        <v>0.03340032696723938</v>
       </c>
       <c r="D63" s="2" t="n">
         <v>0.0</v>
@@ -3741,25 +3741,25 @@
         <v>0.0</v>
       </c>
       <c r="F63" s="2" t="n">
-        <v>1.4207402467727661</v>
+        <v>0.0</v>
       </c>
       <c r="G63" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H63" s="2" t="n">
-        <v>0.0</v>
+        <v>2.499000072479248</v>
       </c>
       <c r="I63" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J63" s="2" t="n">
-        <v>50.89925765991211</v>
+        <v>50.89298629760742</v>
       </c>
       <c r="K63" s="2" t="n">
-        <v>-1.41341233253479</v>
+        <v>-1.399350643157959</v>
       </c>
       <c r="L63" s="2" t="n">
-        <v>1014.9142456054688</v>
+        <v>1016.8795776367188</v>
       </c>
       <c r="M63" s="2" t="n">
         <v>0.0</v>
@@ -3774,23 +3774,23 @@
         <v>0.0</v>
       </c>
       <c r="Q63" s="2" t="n">
-        <v>0.01760953478515148</v>
+        <v>0.10000000149011612</v>
       </c>
       <c r="R63" s="2" t="n">
-        <v>20.559280395507812</v>
+        <v>10.676241874694824</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>2023-04-28 20:00:00</t>
+          <t>2023-04-26 06:00:00</t>
         </is>
       </c>
       <c r="B64" s="2" t="n">
-        <v>0.18731150031089783</v>
+        <v>0.039554014801979065</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>0.4438644051551819</v>
+        <v>0.040527794510126114</v>
       </c>
       <c r="D64" s="2" t="n">
         <v>0.0</v>
@@ -3799,25 +3799,25 @@
         <v>0.0</v>
       </c>
       <c r="F64" s="2" t="n">
-        <v>1.3917734622955322</v>
+        <v>0.0</v>
       </c>
       <c r="G64" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H64" s="2" t="n">
-        <v>0.0</v>
+        <v>2.5142998695373535</v>
       </c>
       <c r="I64" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J64" s="2" t="n">
-        <v>50.89925765991211</v>
+        <v>50.89299392700195</v>
       </c>
       <c r="K64" s="2" t="n">
-        <v>-1.4134067296981812</v>
+        <v>-1.3993630409240723</v>
       </c>
       <c r="L64" s="2" t="n">
-        <v>1015.8489379882812</v>
+        <v>1016.797607421875</v>
       </c>
       <c r="M64" s="2" t="n">
         <v>0.0</v>
@@ -3832,23 +3832,23 @@
         <v>0.0</v>
       </c>
       <c r="Q64" s="2" t="n">
-        <v>0.3384864926338196</v>
+        <v>0.10000000149011612</v>
       </c>
       <c r="R64" s="2" t="n">
-        <v>18.08732795715332</v>
+        <v>11.055878639221191</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>2023-04-28 22:00:00</t>
+          <t>2023-04-26 07:00:00</t>
         </is>
       </c>
       <c r="B65" s="2" t="n">
-        <v>0.008266078308224678</v>
+        <v>0.06290251761674881</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>0.48028719425201416</v>
+        <v>0.04765526205301285</v>
       </c>
       <c r="D65" s="2" t="n">
         <v>0.0</v>
@@ -3857,25 +3857,25 @@
         <v>0.0</v>
       </c>
       <c r="F65" s="2" t="n">
-        <v>1.2792408466339111</v>
+        <v>0.0</v>
       </c>
       <c r="G65" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H65" s="2" t="n">
-        <v>0.0</v>
+        <v>2.5448999404907227</v>
       </c>
       <c r="I65" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J65" s="2" t="n">
-        <v>50.89924240112305</v>
+        <v>50.89297866821289</v>
       </c>
       <c r="K65" s="2" t="n">
-        <v>-1.4134174585342407</v>
+        <v>-1.3993629217147827</v>
       </c>
       <c r="L65" s="2" t="n">
-        <v>1016.7836303710938</v>
+        <v>1016.7156982421875</v>
       </c>
       <c r="M65" s="2" t="n">
         <v>0.0</v>
@@ -3890,23 +3890,23 @@
         <v>0.0</v>
       </c>
       <c r="Q65" s="2" t="n">
-        <v>0.0</v>
+        <v>0.10000000149011612</v>
       </c>
       <c r="R65" s="2" t="n">
-        <v>15.849113464355469</v>
+        <v>12.308674812316895</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>2023-04-29 00:00:00</t>
+          <t>2023-04-26 08:00:00</t>
         </is>
       </c>
       <c r="B66" s="2" t="n">
-        <v>0.040596719831228256</v>
+        <v>0.08625102788209915</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>0.41146519780158997</v>
+        <v>0.05478273332118988</v>
       </c>
       <c r="D66" s="2" t="n">
         <v>0.0</v>
@@ -3915,25 +3915,25 @@
         <v>0.0</v>
       </c>
       <c r="F66" s="2" t="n">
-        <v>1.2711576223373413</v>
+        <v>0.0</v>
       </c>
       <c r="G66" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H66" s="2" t="n">
-        <v>0.0</v>
+        <v>2.585700035095215</v>
       </c>
       <c r="I66" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J66" s="2" t="n">
-        <v>50.89925003051758</v>
+        <v>50.89298629760742</v>
       </c>
       <c r="K66" s="2" t="n">
-        <v>-1.4134153127670288</v>
+        <v>-1.3993589878082275</v>
       </c>
       <c r="L66" s="2" t="n">
-        <v>1017.5722045898438</v>
+        <v>1016.6337280273438</v>
       </c>
       <c r="M66" s="2" t="n">
         <v>0.0</v>
@@ -3948,23 +3948,23 @@
         <v>0.0</v>
       </c>
       <c r="Q66" s="2" t="n">
-        <v>0.10000000149011612</v>
+        <v>0.08375141024589539</v>
       </c>
       <c r="R66" s="2" t="n">
-        <v>14.374914169311523</v>
+        <v>13.000847816467285</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>2023-04-29 02:00:00</t>
+          <t>2023-04-26 09:00:00</t>
         </is>
       </c>
       <c r="B67" s="2" t="n">
-        <v>0.07292736321687698</v>
+        <v>0.1095995306968689</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>0.3453809916973114</v>
+        <v>0.061910200864076614</v>
       </c>
       <c r="D67" s="2" t="n">
         <v>0.0</v>
@@ -3973,25 +3973,25 @@
         <v>0.0</v>
       </c>
       <c r="F67" s="2" t="n">
-        <v>1.217858076095581</v>
+        <v>0.0</v>
       </c>
       <c r="G67" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H67" s="2" t="n">
-        <v>0.0</v>
+        <v>2.549999952316284</v>
       </c>
       <c r="I67" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J67" s="2" t="n">
-        <v>50.89925003051758</v>
+        <v>50.89299392700195</v>
       </c>
       <c r="K67" s="2" t="n">
-        <v>-1.4134271144866943</v>
+        <v>-1.3993569612503052</v>
       </c>
       <c r="L67" s="2" t="n">
-        <v>1018.1803588867188</v>
+        <v>1016.5518188476562</v>
       </c>
       <c r="M67" s="2" t="n">
         <v>0.0</v>
@@ -4006,23 +4006,23 @@
         <v>0.0</v>
       </c>
       <c r="Q67" s="2" t="n">
-        <v>0.10000000149011612</v>
+        <v>0.0</v>
       </c>
       <c r="R67" s="2" t="n">
-        <v>13.52153491973877</v>
+        <v>13.212862014770508</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>2023-04-29 04:00:00</t>
+          <t>2023-04-26 10:00:00</t>
         </is>
       </c>
       <c r="B68" s="2" t="n">
-        <v>0.10525801032781601</v>
+        <v>0.13294802606105804</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>0.3564859926700592</v>
+        <v>0.06903766840696335</v>
       </c>
       <c r="D68" s="2" t="n">
         <v>0.0</v>
@@ -4031,25 +4031,25 @@
         <v>0.0</v>
       </c>
       <c r="F68" s="2" t="n">
-        <v>1.2712661027908325</v>
+        <v>0.0</v>
       </c>
       <c r="G68" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H68" s="2" t="n">
-        <v>0.0</v>
+        <v>2.575500249862671</v>
       </c>
       <c r="I68" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J68" s="2" t="n">
-        <v>50.89924240112305</v>
+        <v>50.89298629760742</v>
       </c>
       <c r="K68" s="2" t="n">
-        <v>-1.4134366512298584</v>
+        <v>-1.3993549346923828</v>
       </c>
       <c r="L68" s="2" t="n">
-        <v>1018.7885131835938</v>
+        <v>1016.4698486328125</v>
       </c>
       <c r="M68" s="2" t="n">
         <v>0.0</v>
@@ -4064,23 +4064,23 @@
         <v>0.0</v>
       </c>
       <c r="Q68" s="2" t="n">
-        <v>-0.10000000149011612</v>
+        <v>0.10000000149011612</v>
       </c>
       <c r="R68" s="2" t="n">
-        <v>12.2594633102417</v>
+        <v>13.687156677246094</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>2023-04-29 06:00:00</t>
+          <t>2023-04-26 11:00:00</t>
         </is>
       </c>
       <c r="B69" s="2" t="n">
-        <v>0.13758864998817444</v>
+        <v>0.1562965363264084</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>0.41550329327583313</v>
+        <v>0.07616513967514038</v>
       </c>
       <c r="D69" s="2" t="n">
         <v>0.0</v>
@@ -4089,25 +4089,25 @@
         <v>0.0</v>
       </c>
       <c r="F69" s="2" t="n">
-        <v>1.3302316665649414</v>
+        <v>0.0</v>
       </c>
       <c r="G69" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H69" s="2" t="n">
-        <v>0.0</v>
+        <v>2.555100202560425</v>
       </c>
       <c r="I69" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J69" s="2" t="n">
-        <v>50.89925003051758</v>
+        <v>50.89298629760742</v>
       </c>
       <c r="K69" s="2" t="n">
-        <v>-1.4134372472763062</v>
+        <v>-1.3993483781814575</v>
       </c>
       <c r="L69" s="2" t="n">
-        <v>1019.3966674804688</v>
+        <v>1016.387939453125</v>
       </c>
       <c r="M69" s="2" t="n">
         <v>0.0</v>
@@ -4122,23 +4122,23 @@
         <v>0.0</v>
       </c>
       <c r="Q69" s="2" t="n">
-        <v>0.0</v>
+        <v>-0.10000000149011612</v>
       </c>
       <c r="R69" s="2" t="n">
-        <v>13.791701316833496</v>
+        <v>14.332467079162598</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>2023-04-29 08:00:00</t>
+          <t>2023-04-26 12:00:00</t>
         </is>
       </c>
       <c r="B70" s="2" t="n">
-        <v>0.16991929709911346</v>
+        <v>0.17964504659175873</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>0.4798666834831238</v>
+        <v>0.08329260349273682</v>
       </c>
       <c r="D70" s="2" t="n">
         <v>0.0</v>
@@ -4147,25 +4147,25 @@
         <v>0.0</v>
       </c>
       <c r="F70" s="2" t="n">
-        <v>1.4186960458755493</v>
+        <v>0.0</v>
       </c>
       <c r="G70" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H70" s="2" t="n">
-        <v>0.0</v>
+        <v>2.6417999267578125</v>
       </c>
       <c r="I70" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J70" s="2" t="n">
-        <v>50.89925003051758</v>
+        <v>50.89298629760742</v>
       </c>
       <c r="K70" s="2" t="n">
-        <v>-1.4134316444396973</v>
+        <v>-1.3993556499481201</v>
       </c>
       <c r="L70" s="2" t="n">
-        <v>1020.0048217773438</v>
+        <v>1016.3059692382812</v>
       </c>
       <c r="M70" s="2" t="n">
         <v>0.0</v>
@@ -4180,23 +4180,23 @@
         <v>0.0</v>
       </c>
       <c r="Q70" s="2" t="n">
-        <v>0.4000000059604645</v>
+        <v>0.020920049399137497</v>
       </c>
       <c r="R70" s="2" t="n">
-        <v>16.151796340942383</v>
+        <v>14.469820022583008</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>2023-04-29 10:00:00</t>
+          <t>2023-04-26 13:00:00</t>
         </is>
       </c>
       <c r="B71" s="2" t="n">
-        <v>0.2022499293088913</v>
+        <v>0.8088130950927734</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>0.3396199345588684</v>
+        <v>0.09042007476091385</v>
       </c>
       <c r="D71" s="2" t="n">
         <v>0.0</v>
@@ -4205,25 +4205,25 @@
         <v>0.0</v>
       </c>
       <c r="F71" s="2" t="n">
-        <v>1.3330984115600586</v>
+        <v>0.0</v>
       </c>
       <c r="G71" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H71" s="2" t="n">
-        <v>0.0</v>
+        <v>2.519400119781494</v>
       </c>
       <c r="I71" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J71" s="2" t="n">
-        <v>50.899234771728516</v>
+        <v>50.89298629760742</v>
       </c>
       <c r="K71" s="2" t="n">
-        <v>-1.4134362936019897</v>
+        <v>-1.3993539810180664</v>
       </c>
       <c r="L71" s="2" t="n">
-        <v>1020.6129760742188</v>
+        <v>1016.2240600585938</v>
       </c>
       <c r="M71" s="2" t="n">
         <v>0.0</v>
@@ -4238,23 +4238,23 @@
         <v>0.0</v>
       </c>
       <c r="Q71" s="2" t="n">
-        <v>0.048090528696775436</v>
+        <v>0.1473606377840042</v>
       </c>
       <c r="R71" s="2" t="n">
-        <v>19.605602264404297</v>
+        <v>14.613608360290527</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>2023-04-29 12:00:00</t>
+          <t>2023-04-26 14:00:00</t>
         </is>
       </c>
       <c r="B72" s="2" t="n">
-        <v>0.017315853387117386</v>
+        <v>0.06859642267227173</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>0.46782395243644714</v>
+        <v>0.09754754602909088</v>
       </c>
       <c r="D72" s="2" t="n">
         <v>0.0</v>
@@ -4263,25 +4263,25 @@
         <v>0.0</v>
       </c>
       <c r="F72" s="2" t="n">
-        <v>1.3910247087478638</v>
+        <v>0.0</v>
       </c>
       <c r="G72" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H72" s="2" t="n">
-        <v>0.0</v>
+        <v>2.555100202560425</v>
       </c>
       <c r="I72" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J72" s="2" t="n">
-        <v>50.89925765991211</v>
+        <v>50.89298629760742</v>
       </c>
       <c r="K72" s="2" t="n">
-        <v>-1.4134429693222046</v>
+        <v>-1.399351716041565</v>
       </c>
       <c r="L72" s="2" t="n">
-        <v>1020.9445190429688</v>
+        <v>1016.14208984375</v>
       </c>
       <c r="M72" s="2" t="n">
         <v>0.0</v>
@@ -4296,23 +4296,23 @@
         <v>0.0</v>
       </c>
       <c r="Q72" s="2" t="n">
-        <v>0.0</v>
+        <v>0.1753830909729004</v>
       </c>
       <c r="R72" s="2" t="n">
-        <v>19.87569236755371</v>
+        <v>14.9326753616333</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>2023-04-29 14:00:00</t>
+          <t>2023-04-26 15:00:00</t>
         </is>
       </c>
       <c r="B73" s="2" t="n">
-        <v>0.06614226847887039</v>
+        <v>0.007188369054347277</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>0.35139408707618713</v>
+        <v>0.10467501729726791</v>
       </c>
       <c r="D73" s="2" t="n">
         <v>0.0</v>
@@ -4321,25 +4321,25 @@
         <v>0.0</v>
       </c>
       <c r="F73" s="2" t="n">
-        <v>1.2650442123413086</v>
+        <v>0.0</v>
       </c>
       <c r="G73" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H73" s="2" t="n">
-        <v>0.0</v>
+        <v>2.555100202560425</v>
       </c>
       <c r="I73" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J73" s="2" t="n">
-        <v>50.899269104003906</v>
+        <v>50.89297866821289</v>
       </c>
       <c r="K73" s="2" t="n">
-        <v>-1.413435459136963</v>
+        <v>-1.3993433713912964</v>
       </c>
       <c r="L73" s="2" t="n">
-        <v>1021.0287475585938</v>
+        <v>1016.0601806640625</v>
       </c>
       <c r="M73" s="2" t="n">
         <v>0.0</v>
@@ -4357,20 +4357,20 @@
         <v>0.0</v>
       </c>
       <c r="R73" s="2" t="n">
-        <v>17.262136459350586</v>
+        <v>15.155380249023438</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>2023-04-29 16:00:00</t>
+          <t>2023-04-26 16:00:00</t>
         </is>
       </c>
       <c r="B74" s="2" t="n">
-        <v>0.1149686872959137</v>
+        <v>0.019983312115073204</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>0.42446574568748474</v>
+        <v>0.11180248111486435</v>
       </c>
       <c r="D74" s="2" t="n">
         <v>0.0</v>
@@ -4379,25 +4379,25 @@
         <v>0.0</v>
       </c>
       <c r="F74" s="2" t="n">
-        <v>1.4355974197387695</v>
+        <v>0.0</v>
       </c>
       <c r="G74" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H74" s="2" t="n">
-        <v>0.0</v>
+        <v>2.606100082397461</v>
       </c>
       <c r="I74" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J74" s="2" t="n">
-        <v>50.89925765991211</v>
+        <v>50.89298629760742</v>
       </c>
       <c r="K74" s="2" t="n">
-        <v>-1.413417100906372</v>
+        <v>-1.399336338043213</v>
       </c>
       <c r="L74" s="2" t="n">
-        <v>1021.1129760742188</v>
+        <v>1016.0173950195312</v>
       </c>
       <c r="M74" s="2" t="n">
         <v>0.0</v>
@@ -4415,20 +4415,20 @@
         <v>0.10000000149011612</v>
       </c>
       <c r="R74" s="2" t="n">
-        <v>17.58434295654297</v>
+        <v>15.300000190734863</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>2023-04-29 18:00:00</t>
+          <t>2023-04-26 17:00:00</t>
         </is>
       </c>
       <c r="B75" s="2" t="n">
-        <v>0.1637950986623764</v>
+        <v>0.03277825564146042</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>0.47155773639678955</v>
+        <v>0.11892995238304138</v>
       </c>
       <c r="D75" s="2" t="n">
         <v>0.0</v>
@@ -4437,25 +4437,25 @@
         <v>0.0</v>
       </c>
       <c r="F75" s="2" t="n">
-        <v>1.3313231468200684</v>
+        <v>0.0</v>
       </c>
       <c r="G75" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H75" s="2" t="n">
-        <v>0.0</v>
+        <v>2.6111998558044434</v>
       </c>
       <c r="I75" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J75" s="2" t="n">
-        <v>50.89925765991211</v>
+        <v>50.89298629760742</v>
       </c>
       <c r="K75" s="2" t="n">
-        <v>-1.4134166240692139</v>
+        <v>-1.3993381261825562</v>
       </c>
       <c r="L75" s="2" t="n">
-        <v>1021.1972045898438</v>
+        <v>1016.0828857421875</v>
       </c>
       <c r="M75" s="2" t="n">
         <v>0.0</v>
@@ -4470,23 +4470,23 @@
         <v>0.0</v>
       </c>
       <c r="Q75" s="2" t="n">
-        <v>0.006428755819797516</v>
+        <v>0.10000000149011612</v>
       </c>
       <c r="R75" s="2" t="n">
-        <v>15.171026229858398</v>
+        <v>15.073904991149902</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>2023-04-29 20:00:00</t>
+          <t>2023-04-26 18:00:00</t>
         </is>
       </c>
       <c r="B76" s="2" t="n">
-        <v>0.04681497439742088</v>
+        <v>0.04557320103049278</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>0.5658972263336182</v>
+        <v>0.12605741620063782</v>
       </c>
       <c r="D76" s="2" t="n">
         <v>0.0</v>
@@ -4495,25 +4495,25 @@
         <v>0.0</v>
       </c>
       <c r="F76" s="2" t="n">
-        <v>1.3696527481079102</v>
+        <v>0.0</v>
       </c>
       <c r="G76" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H76" s="2" t="n">
-        <v>0.0</v>
+        <v>2.667300224304199</v>
       </c>
       <c r="I76" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J76" s="2" t="n">
-        <v>50.899269104003906</v>
+        <v>50.89297866821289</v>
       </c>
       <c r="K76" s="2" t="n">
-        <v>-1.4134083986282349</v>
+        <v>-1.3993403911590576</v>
       </c>
       <c r="L76" s="2" t="n">
-        <v>1021.281494140625</v>
+        <v>1016.1483154296875</v>
       </c>
       <c r="M76" s="2" t="n">
         <v>0.0</v>
@@ -4528,23 +4528,23 @@
         <v>0.0</v>
       </c>
       <c r="Q76" s="2" t="n">
-        <v>0.27501678466796875</v>
+        <v>0.02085694670677185</v>
       </c>
       <c r="R76" s="2" t="n">
-        <v>14.421758651733398</v>
+        <v>14.943840026855469</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>2023-04-29 22:00:00</t>
+          <t>2023-04-26 19:00:00</t>
         </is>
       </c>
       <c r="B77" s="2" t="n">
-        <v>0.03093365952372551</v>
+        <v>0.05836814269423485</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>0.41547369956970215</v>
+        <v>0.13318489491939545</v>
       </c>
       <c r="D77" s="2" t="n">
         <v>0.0</v>
@@ -4553,25 +4553,25 @@
         <v>0.0</v>
       </c>
       <c r="F77" s="2" t="n">
-        <v>1.266661286354065</v>
+        <v>0.0</v>
       </c>
       <c r="G77" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H77" s="2" t="n">
-        <v>0.0</v>
+        <v>2.657100200653076</v>
       </c>
       <c r="I77" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J77" s="2" t="n">
-        <v>50.89925003051758</v>
+        <v>50.89298629760742</v>
       </c>
       <c r="K77" s="2" t="n">
-        <v>-1.4134119749069214</v>
+        <v>-1.399337887763977</v>
       </c>
       <c r="L77" s="2" t="n">
-        <v>1021.36572265625</v>
+        <v>1016.2138061523438</v>
       </c>
       <c r="M77" s="2" t="n">
         <v>0.0</v>
@@ -4586,23 +4586,23 @@
         <v>0.0</v>
       </c>
       <c r="Q77" s="2" t="n">
-        <v>0.4571169316768646</v>
+        <v>0.10000000149011612</v>
       </c>
       <c r="R77" s="2" t="n">
-        <v>13.783571243286133</v>
+        <v>14.470575332641602</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>2023-04-30 00:00:00</t>
+          <t>2023-04-26 20:00:00</t>
         </is>
       </c>
       <c r="B78" s="2" t="n">
-        <v>0.18179376423358917</v>
+        <v>0.07116308808326721</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>0.19075877964496613</v>
+        <v>0.14031235873699188</v>
       </c>
       <c r="D78" s="2" t="n">
         <v>0.0</v>
@@ -4611,25 +4611,25 @@
         <v>0.0</v>
       </c>
       <c r="F78" s="2" t="n">
-        <v>1.2749648094177246</v>
+        <v>0.0</v>
       </c>
       <c r="G78" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H78" s="2" t="n">
-        <v>0.0</v>
+        <v>2.5806000232696533</v>
       </c>
       <c r="I78" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J78" s="2" t="n">
-        <v>50.89925003051758</v>
+        <v>50.89298629760742</v>
       </c>
       <c r="K78" s="2" t="n">
-        <v>-1.4134163856506348</v>
+        <v>-1.3993535041809082</v>
       </c>
       <c r="L78" s="2" t="n">
-        <v>1021.449951171875</v>
+        <v>1016.2792358398438</v>
       </c>
       <c r="M78" s="2" t="n">
         <v>0.0</v>
@@ -4644,23 +4644,23 @@
         <v>0.0</v>
       </c>
       <c r="Q78" s="2" t="n">
-        <v>-0.06611727923154831</v>
+        <v>0.04575295001268387</v>
       </c>
       <c r="R78" s="2" t="n">
-        <v>13.186519622802734</v>
+        <v>14.254606246948242</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>2023-04-30 02:00:00</t>
+          <t>2023-04-26 21:00:00</t>
         </is>
       </c>
       <c r="B79" s="2" t="n">
-        <v>0.018785351887345314</v>
+        <v>0.08395802974700928</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>0.43841680884361267</v>
+        <v>0.14743982255458832</v>
       </c>
       <c r="D79" s="2" t="n">
         <v>0.0</v>
@@ -4669,25 +4669,25 @@
         <v>0.0</v>
       </c>
       <c r="F79" s="2" t="n">
-        <v>1.2331478595733643</v>
+        <v>0.0</v>
       </c>
       <c r="G79" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H79" s="2" t="n">
-        <v>0.0</v>
+        <v>2.529600143432617</v>
       </c>
       <c r="I79" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J79" s="2" t="n">
-        <v>50.89925003051758</v>
+        <v>50.89298629760742</v>
       </c>
       <c r="K79" s="2" t="n">
-        <v>-1.4134323596954346</v>
+        <v>-1.3993507623672485</v>
       </c>
       <c r="L79" s="2" t="n">
-        <v>1021.3567504882812</v>
+        <v>1016.3447265625</v>
       </c>
       <c r="M79" s="2" t="n">
         <v>0.0</v>
@@ -4702,23 +4702,23 @@
         <v>0.0</v>
       </c>
       <c r="Q79" s="2" t="n">
-        <v>0.00906276609748602</v>
+        <v>-0.10000000149011612</v>
       </c>
       <c r="R79" s="2" t="n">
-        <v>12.127132415771484</v>
+        <v>14.091434478759766</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>2023-04-30 04:00:00</t>
+          <t>2023-04-26 22:00:00</t>
         </is>
       </c>
       <c r="B80" s="2" t="n">
-        <v>0.05892811343073845</v>
+        <v>0.09675297141075134</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>0.36416399478912354</v>
+        <v>0.15456730127334595</v>
       </c>
       <c r="D80" s="2" t="n">
         <v>0.0</v>
@@ -4727,25 +4727,25 @@
         <v>0.0</v>
       </c>
       <c r="F80" s="2" t="n">
-        <v>1.2558807134628296</v>
+        <v>0.0</v>
       </c>
       <c r="G80" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H80" s="2" t="n">
-        <v>0.0</v>
+        <v>2.555100202560425</v>
       </c>
       <c r="I80" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J80" s="2" t="n">
-        <v>50.89924240112305</v>
+        <v>50.89297866821289</v>
       </c>
       <c r="K80" s="2" t="n">
-        <v>-1.4134342670440674</v>
+        <v>-1.3993566036224365</v>
       </c>
       <c r="L80" s="2" t="n">
-        <v>1021.0038452148438</v>
+        <v>1016.41015625</v>
       </c>
       <c r="M80" s="2" t="n">
         <v>0.0</v>
@@ -4760,23 +4760,23 @@
         <v>0.0</v>
       </c>
       <c r="Q80" s="2" t="n">
-        <v>0.06473860889673233</v>
+        <v>0.10000000149011612</v>
       </c>
       <c r="R80" s="2" t="n">
-        <v>12.033137321472168</v>
+        <v>13.441818237304688</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>2023-04-30 06:00:00</t>
+          <t>2023-04-26 23:00:00</t>
         </is>
       </c>
       <c r="B81" s="2" t="n">
-        <v>0.09907086938619614</v>
+        <v>0.109547920525074</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>0.40607690811157227</v>
+        <v>0.16169476509094238</v>
       </c>
       <c r="D81" s="2" t="n">
         <v>0.0</v>
@@ -4785,25 +4785,25 @@
         <v>0.0</v>
       </c>
       <c r="F81" s="2" t="n">
-        <v>1.2963001728057861</v>
+        <v>0.0</v>
       </c>
       <c r="G81" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H81" s="2" t="n">
-        <v>0.0</v>
+        <v>2.458199977874756</v>
       </c>
       <c r="I81" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J81" s="2" t="n">
-        <v>50.89925765991211</v>
+        <v>50.89298629760742</v>
       </c>
       <c r="K81" s="2" t="n">
-        <v>-1.4134342670440674</v>
+        <v>-1.3993562459945679</v>
       </c>
       <c r="L81" s="2" t="n">
-        <v>1020.6509399414062</v>
+        <v>1016.4756469726562</v>
       </c>
       <c r="M81" s="2" t="n">
         <v>0.0</v>
@@ -4818,23 +4818,23 @@
         <v>0.0</v>
       </c>
       <c r="Q81" s="2" t="n">
-        <v>-0.060013167560100555</v>
+        <v>0.0</v>
       </c>
       <c r="R81" s="2" t="n">
-        <v>13.177490234375</v>
+        <v>13.118868827819824</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>2023-04-30 08:00:00</t>
+          <t>2023-04-27 00:00:00</t>
         </is>
       </c>
       <c r="B82" s="2" t="n">
-        <v>0.13921363651752472</v>
+        <v>0.12234286218881607</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>0.4624806046485901</v>
+        <v>0.16882222890853882</v>
       </c>
       <c r="D82" s="2" t="n">
         <v>0.0</v>
@@ -4843,25 +4843,25 @@
         <v>0.0</v>
       </c>
       <c r="F82" s="2" t="n">
-        <v>1.3610845804214478</v>
+        <v>0.0</v>
       </c>
       <c r="G82" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H82" s="2" t="n">
-        <v>0.0</v>
+        <v>2.509200096130371</v>
       </c>
       <c r="I82" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J82" s="2" t="n">
-        <v>50.89925765991211</v>
+        <v>50.89298629760742</v>
       </c>
       <c r="K82" s="2" t="n">
-        <v>-1.4134305715560913</v>
+        <v>-1.3993582725524902</v>
       </c>
       <c r="L82" s="2" t="n">
-        <v>1020.2979736328125</v>
+        <v>1016.5411376953125</v>
       </c>
       <c r="M82" s="2" t="n">
         <v>0.0</v>
@@ -4876,67 +4876,4765 @@
         <v>0.0</v>
       </c>
       <c r="Q82" s="2" t="n">
-        <v>0.10000000149011612</v>
+        <v>0.0</v>
       </c>
       <c r="R82" s="2" t="n">
-        <v>15.541241645812988</v>
+        <v>13.021595001220703</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
+          <t>2023-04-27 01:00:00</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>0.13513781130313873</v>
+      </c>
+      <c r="C83" s="2" t="n">
+        <v>0.17594970762729645</v>
+      </c>
+      <c r="D83" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F83" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G83" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H83" s="2" t="n">
+        <v>2.4939000606536865</v>
+      </c>
+      <c r="I83" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J83" s="2" t="n">
+        <v>50.89298629760742</v>
+      </c>
+      <c r="K83" s="2" t="n">
+        <v>-1.3993525505065918</v>
+      </c>
+      <c r="L83" s="2" t="n">
+        <v>1016.5662231445312</v>
+      </c>
+      <c r="M83" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N83" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O83" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P83" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q83" s="2" t="n">
+        <v>-0.10000000149011612</v>
+      </c>
+      <c r="R83" s="2" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-27 02:00:00</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>0.1479327529668808</v>
+      </c>
+      <c r="C84" s="2" t="n">
+        <v>0.18307717144489288</v>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F84" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G84" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H84" s="2" t="n">
+        <v>2.4327001571655273</v>
+      </c>
+      <c r="I84" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J84" s="2" t="n">
+        <v>50.89299392700195</v>
+      </c>
+      <c r="K84" s="2" t="n">
+        <v>-1.3993622064590454</v>
+      </c>
+      <c r="L84" s="2" t="n">
+        <v>1016.2317504882812</v>
+      </c>
+      <c r="M84" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N84" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O84" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P84" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q84" s="2" t="n">
+        <v>0.10000000149011612</v>
+      </c>
+      <c r="R84" s="2" t="n">
+        <v>13.0734224319458</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-27 03:00:00</t>
+        </is>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>0.16072769463062286</v>
+      </c>
+      <c r="C85" s="2" t="n">
+        <v>0.19020463526248932</v>
+      </c>
+      <c r="D85" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F85" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G85" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H85" s="2" t="n">
+        <v>2.427600145339966</v>
+      </c>
+      <c r="I85" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J85" s="2" t="n">
+        <v>50.89299392700195</v>
+      </c>
+      <c r="K85" s="2" t="n">
+        <v>-1.3993639945983887</v>
+      </c>
+      <c r="L85" s="2" t="n">
+        <v>1015.897216796875</v>
+      </c>
+      <c r="M85" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N85" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O85" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P85" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q85" s="2" t="n">
+        <v>0.02481422759592533</v>
+      </c>
+      <c r="R85" s="2" t="n">
+        <v>13.176533699035645</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-27 04:00:00</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>0.17352263629436493</v>
+      </c>
+      <c r="C86" s="2" t="n">
+        <v>0.19733211398124695</v>
+      </c>
+      <c r="D86" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F86" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G86" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H86" s="2" t="n">
+        <v>2.4531002044677734</v>
+      </c>
+      <c r="I86" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J86" s="2" t="n">
+        <v>50.89297866821289</v>
+      </c>
+      <c r="K86" s="2" t="n">
+        <v>-1.3993635177612305</v>
+      </c>
+      <c r="L86" s="2" t="n">
+        <v>1015.562744140625</v>
+      </c>
+      <c r="M86" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N86" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O86" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P86" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q86" s="2" t="n">
+        <v>0.1338932067155838</v>
+      </c>
+      <c r="R86" s="2" t="n">
+        <v>13.33124828338623</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-27 05:00:00</t>
+        </is>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>0.186317577958107</v>
+      </c>
+      <c r="C87" s="2" t="n">
+        <v>0.20445957779884338</v>
+      </c>
+      <c r="D87" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F87" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G87" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H87" s="2" t="n">
+        <v>2.529600143432617</v>
+      </c>
+      <c r="I87" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J87" s="2" t="n">
+        <v>50.89298629760742</v>
+      </c>
+      <c r="K87" s="2" t="n">
+        <v>-1.3993537425994873</v>
+      </c>
+      <c r="L87" s="2" t="n">
+        <v>1015.2282104492188</v>
+      </c>
+      <c r="M87" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N87" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O87" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P87" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q87" s="2" t="n">
+        <v>0.3432162404060364</v>
+      </c>
+      <c r="R87" s="2" t="n">
+        <v>13.495471954345703</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-27 06:00:00</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>0.19911251962184906</v>
+      </c>
+      <c r="C88" s="2" t="n">
+        <v>0.21158704161643982</v>
+      </c>
+      <c r="D88" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F88" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G88" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H88" s="2" t="n">
+        <v>2.509200096130371</v>
+      </c>
+      <c r="I88" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J88" s="2" t="n">
+        <v>50.89298629760742</v>
+      </c>
+      <c r="K88" s="2" t="n">
+        <v>-1.39936101436615</v>
+      </c>
+      <c r="L88" s="2" t="n">
+        <v>1014.8936767578125</v>
+      </c>
+      <c r="M88" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N88" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O88" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P88" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q88" s="2" t="n">
+        <v>0.10000000149011612</v>
+      </c>
+      <c r="R88" s="2" t="n">
+        <v>14.029802322387695</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-27 07:00:00</t>
+        </is>
+      </c>
+      <c r="B89" s="2" t="n">
+        <v>0.0013274007942527533</v>
+      </c>
+      <c r="C89" s="2" t="n">
+        <v>0.21871452033519745</v>
+      </c>
+      <c r="D89" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F89" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G89" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H89" s="2" t="n">
+        <v>2.5704004764556885</v>
+      </c>
+      <c r="I89" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J89" s="2" t="n">
+        <v>50.89297866821289</v>
+      </c>
+      <c r="K89" s="2" t="n">
+        <v>-1.3993573188781738</v>
+      </c>
+      <c r="L89" s="2" t="n">
+        <v>1014.5592041015625</v>
+      </c>
+      <c r="M89" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N89" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O89" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P89" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q89" s="2" t="n">
+        <v>0.03405580669641495</v>
+      </c>
+      <c r="R89" s="2" t="n">
+        <v>14.384182929992676</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-27 08:00:00</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>0.004100581631064415</v>
+      </c>
+      <c r="C90" s="2" t="n">
+        <v>0.22584198415279388</v>
+      </c>
+      <c r="D90" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F90" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G90" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H90" s="2" t="n">
+        <v>2.6214001178741455</v>
+      </c>
+      <c r="I90" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J90" s="2" t="n">
+        <v>50.89299392700195</v>
+      </c>
+      <c r="K90" s="2" t="n">
+        <v>-1.3993536233901978</v>
+      </c>
+      <c r="L90" s="2" t="n">
+        <v>1014.2246704101562</v>
+      </c>
+      <c r="M90" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N90" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O90" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P90" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q90" s="2" t="n">
+        <v>0.10000000149011612</v>
+      </c>
+      <c r="R90" s="2" t="n">
+        <v>14.573504447937012</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-27 09:00:00</t>
+        </is>
+      </c>
+      <c r="B91" s="2" t="n">
+        <v>0.00687376270070672</v>
+      </c>
+      <c r="C91" s="2" t="n">
+        <v>0.23296944797039032</v>
+      </c>
+      <c r="D91" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F91" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G91" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H91" s="2" t="n">
+        <v>2.5347001552581787</v>
+      </c>
+      <c r="I91" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J91" s="2" t="n">
+        <v>50.89299392700195</v>
+      </c>
+      <c r="K91" s="2" t="n">
+        <v>-1.3993487358093262</v>
+      </c>
+      <c r="L91" s="2" t="n">
+        <v>1013.8901977539062</v>
+      </c>
+      <c r="M91" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N91" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O91" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P91" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q91" s="2" t="n">
+        <v>0.14017616212368011</v>
+      </c>
+      <c r="R91" s="2" t="n">
+        <v>14.800000190734863</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-27 10:00:00</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="n">
+        <v>0.009646943770349026</v>
+      </c>
+      <c r="C92" s="2" t="n">
+        <v>0.24009692668914795</v>
+      </c>
+      <c r="D92" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F92" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G92" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H92" s="2" t="n">
+        <v>2.606100082397461</v>
+      </c>
+      <c r="I92" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J92" s="2" t="n">
+        <v>50.89297866821289</v>
+      </c>
+      <c r="K92" s="2" t="n">
+        <v>-1.3993512392044067</v>
+      </c>
+      <c r="L92" s="2" t="n">
+        <v>1013.5556640625</v>
+      </c>
+      <c r="M92" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N92" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O92" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P92" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q92" s="2" t="n">
+        <v>0.06874168664216995</v>
+      </c>
+      <c r="R92" s="2" t="n">
+        <v>15.773896217346191</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-27 11:00:00</t>
+        </is>
+      </c>
+      <c r="B93" s="2" t="n">
+        <v>0.012420124374330044</v>
+      </c>
+      <c r="C93" s="2" t="n">
+        <v>0.24722439050674438</v>
+      </c>
+      <c r="D93" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F93" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G93" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H93" s="2" t="n">
+        <v>2.6111998558044434</v>
+      </c>
+      <c r="I93" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J93" s="2" t="n">
+        <v>50.89298629760742</v>
+      </c>
+      <c r="K93" s="2" t="n">
+        <v>-1.3993531465530396</v>
+      </c>
+      <c r="L93" s="2" t="n">
+        <v>1013.2211303710938</v>
+      </c>
+      <c r="M93" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N93" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O93" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P93" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q93" s="2" t="n">
+        <v>0.256242960691452</v>
+      </c>
+      <c r="R93" s="2" t="n">
+        <v>15.600000381469727</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-27 12:00:00</t>
+        </is>
+      </c>
+      <c r="B94" s="2" t="n">
+        <v>0.015193304978311062</v>
+      </c>
+      <c r="C94" s="2" t="n">
+        <v>0.2543518543243408</v>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F94" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G94" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H94" s="2" t="n">
+        <v>2.585700035095215</v>
+      </c>
+      <c r="I94" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J94" s="2" t="n">
+        <v>50.89298629760742</v>
+      </c>
+      <c r="K94" s="2" t="n">
+        <v>-1.3993587493896484</v>
+      </c>
+      <c r="L94" s="2" t="n">
+        <v>1012.768310546875</v>
+      </c>
+      <c r="M94" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N94" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O94" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P94" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q94" s="2" t="n">
+        <v>0.10000000149011612</v>
+      </c>
+      <c r="R94" s="2" t="n">
+        <v>16.2801570892334</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-27 13:00:00</t>
+        </is>
+      </c>
+      <c r="B95" s="2" t="n">
+        <v>0.017966486513614655</v>
+      </c>
+      <c r="C95" s="2" t="n">
+        <v>0.26147931814193726</v>
+      </c>
+      <c r="D95" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F95" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G95" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H95" s="2" t="n">
+        <v>2.5448999404907227</v>
+      </c>
+      <c r="I95" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J95" s="2" t="n">
+        <v>50.89298629760742</v>
+      </c>
+      <c r="K95" s="2" t="n">
+        <v>-1.3993523120880127</v>
+      </c>
+      <c r="L95" s="2" t="n">
+        <v>1012.084716796875</v>
+      </c>
+      <c r="M95" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N95" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O95" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P95" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q95" s="2" t="n">
+        <v>0.0035491192247718573</v>
+      </c>
+      <c r="R95" s="2" t="n">
+        <v>15.964189529418945</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-27 14:00:00</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="n">
+        <v>0.020739667117595673</v>
+      </c>
+      <c r="C96" s="2" t="n">
+        <v>0.2686067819595337</v>
+      </c>
+      <c r="D96" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F96" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G96" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H96" s="2" t="n">
+        <v>2.427600145339966</v>
+      </c>
+      <c r="I96" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J96" s="2" t="n">
+        <v>50.89298629760742</v>
+      </c>
+      <c r="K96" s="2" t="n">
+        <v>-1.3993489742279053</v>
+      </c>
+      <c r="L96" s="2" t="n">
+        <v>1011.401123046875</v>
+      </c>
+      <c r="M96" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N96" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O96" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P96" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q96" s="2" t="n">
+        <v>0.5710070133209229</v>
+      </c>
+      <c r="R96" s="2" t="n">
+        <v>14.881233215332031</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-27 15:00:00</t>
+        </is>
+      </c>
+      <c r="B97" s="2" t="n">
+        <v>0.02351284772157669</v>
+      </c>
+      <c r="C97" s="2" t="n">
+        <v>0.023294011130928993</v>
+      </c>
+      <c r="D97" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F97" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G97" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H97" s="2" t="n">
+        <v>2.529600143432617</v>
+      </c>
+      <c r="I97" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J97" s="2" t="n">
+        <v>50.89298629760742</v>
+      </c>
+      <c r="K97" s="2" t="n">
+        <v>-1.3993462324142456</v>
+      </c>
+      <c r="L97" s="2" t="n">
+        <v>1010.7174682617188</v>
+      </c>
+      <c r="M97" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N97" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O97" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P97" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q97" s="2" t="n">
+        <v>0.2161586433649063</v>
+      </c>
+      <c r="R97" s="2" t="n">
+        <v>14.169646263122559</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-27 16:00:00</t>
+        </is>
+      </c>
+      <c r="B98" s="2" t="n">
+        <v>0.02628602832555771</v>
+      </c>
+      <c r="C98" s="2" t="n">
+        <v>0.05589568614959717</v>
+      </c>
+      <c r="D98" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>0.6116520166397095</v>
+      </c>
+      <c r="F98" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G98" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H98" s="2" t="n">
+        <v>2.0399999618530273</v>
+      </c>
+      <c r="I98" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J98" s="2" t="n">
+        <v>50.89299392700195</v>
+      </c>
+      <c r="K98" s="2" t="n">
+        <v>-1.3993531465530396</v>
+      </c>
+      <c r="L98" s="2" t="n">
+        <v>1010.0338745117188</v>
+      </c>
+      <c r="M98" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N98" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O98" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P98" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q98" s="2" t="n">
+        <v>0.2600802779197693</v>
+      </c>
+      <c r="R98" s="2" t="n">
+        <v>14.46216106414795</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-27 17:00:00</t>
+        </is>
+      </c>
+      <c r="B99" s="2" t="n">
+        <v>0.029059210792183876</v>
+      </c>
+      <c r="C99" s="2" t="n">
+        <v>0.0884973555803299</v>
+      </c>
+      <c r="D99" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>0.7928040027618408</v>
+      </c>
+      <c r="F99" s="2" t="n">
+        <v>0.7782579660415649</v>
+      </c>
+      <c r="G99" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H99" s="2" t="n">
+        <v>2.4632999897003174</v>
+      </c>
+      <c r="I99" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J99" s="2" t="n">
+        <v>50.891536712646484</v>
+      </c>
+      <c r="K99" s="2" t="n">
+        <v>-1.3996995687484741</v>
+      </c>
+      <c r="L99" s="2" t="n">
+        <v>1009.3502807617188</v>
+      </c>
+      <c r="M99" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N99" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O99" s="2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P99" s="2" t="n">
+        <v>0.4000000059604645</v>
+      </c>
+      <c r="Q99" s="2" t="n">
+        <v>-1.4230222702026367</v>
+      </c>
+      <c r="R99" s="2" t="n">
+        <v>14.62667179107666</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-27 18:00:00</t>
+        </is>
+      </c>
+      <c r="B100" s="2" t="n">
+        <v>0.031832389533519745</v>
+      </c>
+      <c r="C100" s="2" t="n">
+        <v>0.12109903246164322</v>
+      </c>
+      <c r="D100" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>0.686341404914856</v>
+      </c>
+      <c r="F100" s="2" t="n">
+        <v>0.678824782371521</v>
+      </c>
+      <c r="G100" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H100" s="2" t="n">
+        <v>2.1114001274108887</v>
+      </c>
+      <c r="I100" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J100" s="2" t="n">
+        <v>50.89925765991211</v>
+      </c>
+      <c r="K100" s="2" t="n">
+        <v>-1.413420557975769</v>
+      </c>
+      <c r="L100" s="2" t="n">
+        <v>1008.6666259765625</v>
+      </c>
+      <c r="M100" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N100" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O100" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P100" s="2" t="n">
+        <v>0.6000000238418579</v>
+      </c>
+      <c r="Q100" s="2" t="n">
+        <v>-0.1835508942604065</v>
+      </c>
+      <c r="R100" s="2" t="n">
+        <v>15.028084754943848</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-27 19:00:00</t>
+        </is>
+      </c>
+      <c r="B101" s="2" t="n">
+        <v>0.03460557013750076</v>
+      </c>
+      <c r="C101" s="2" t="n">
+        <v>0.15370070934295654</v>
+      </c>
+      <c r="D101" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F101" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G101" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H101" s="2" t="n">
+        <v>2.585700035095215</v>
+      </c>
+      <c r="I101" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J101" s="2" t="n">
+        <v>50.89927673339844</v>
+      </c>
+      <c r="K101" s="2" t="n">
+        <v>-1.4133977890014648</v>
+      </c>
+      <c r="L101" s="2" t="n">
+        <v>1008.2352294921875</v>
+      </c>
+      <c r="M101" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N101" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O101" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P101" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q101" s="2" t="n">
+        <v>0.20005732774734497</v>
+      </c>
+      <c r="R101" s="2" t="n">
+        <v>15.087915420532227</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-27 20:00:00</t>
+        </is>
+      </c>
+      <c r="B102" s="2" t="n">
+        <v>0.03737875446677208</v>
+      </c>
+      <c r="C102" s="2" t="n">
+        <v>0.18630237877368927</v>
+      </c>
+      <c r="D102" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F102" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G102" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H102" s="2" t="n">
+        <v>2.555100202560425</v>
+      </c>
+      <c r="I102" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J102" s="2" t="n">
+        <v>50.899269104003906</v>
+      </c>
+      <c r="K102" s="2" t="n">
+        <v>-1.4134072065353394</v>
+      </c>
+      <c r="L102" s="2" t="n">
+        <v>1008.3460693359375</v>
+      </c>
+      <c r="M102" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N102" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O102" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P102" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q102" s="2" t="n">
+        <v>0.30436113476753235</v>
+      </c>
+      <c r="R102" s="2" t="n">
+        <v>15.62476634979248</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-27 21:00:00</t>
+        </is>
+      </c>
+      <c r="B103" s="2" t="n">
+        <v>0.0401519350707531</v>
+      </c>
+      <c r="C103" s="2" t="n">
+        <v>0.218904048204422</v>
+      </c>
+      <c r="D103" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F103" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G103" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H103" s="2" t="n">
+        <v>2.5652999877929688</v>
+      </c>
+      <c r="I103" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J103" s="2" t="n">
+        <v>50.89925765991211</v>
+      </c>
+      <c r="K103" s="2" t="n">
+        <v>-1.4134122133255005</v>
+      </c>
+      <c r="L103" s="2" t="n">
+        <v>1008.4568481445312</v>
+      </c>
+      <c r="M103" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N103" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O103" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P103" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q103" s="2" t="n">
+        <v>0.08594799786806107</v>
+      </c>
+      <c r="R103" s="2" t="n">
+        <v>15.715226173400879</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-27 22:00:00</t>
+        </is>
+      </c>
+      <c r="B104" s="2" t="n">
+        <v>0.042925115674734116</v>
+      </c>
+      <c r="C104" s="2" t="n">
+        <v>0.4274901747703552</v>
+      </c>
+      <c r="D104" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>1.0470571517944336</v>
+      </c>
+      <c r="F104" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G104" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H104" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I104" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J104" s="2" t="n">
+        <v>50.89925003051758</v>
+      </c>
+      <c r="K104" s="2" t="n">
+        <v>-1.4134163856506348</v>
+      </c>
+      <c r="L104" s="2" t="n">
+        <v>1008.567626953125</v>
+      </c>
+      <c r="M104" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N104" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O104" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P104" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q104" s="2" t="n">
+        <v>0.07935988157987595</v>
+      </c>
+      <c r="R104" s="2" t="n">
+        <v>15.788928985595703</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-27 23:00:00</t>
+        </is>
+      </c>
+      <c r="B105" s="2" t="n">
+        <v>0.045698296278715134</v>
+      </c>
+      <c r="C105" s="2" t="n">
+        <v>0.3468153476715088</v>
+      </c>
+      <c r="D105" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>1.3739923238754272</v>
+      </c>
+      <c r="F105" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G105" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H105" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I105" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J105" s="2" t="n">
+        <v>50.89924240112305</v>
+      </c>
+      <c r="K105" s="2" t="n">
+        <v>-1.4134188890457153</v>
+      </c>
+      <c r="L105" s="2" t="n">
+        <v>1008.678466796875</v>
+      </c>
+      <c r="M105" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N105" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O105" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P105" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q105" s="2" t="n">
+        <v>-0.0578647255897522</v>
+      </c>
+      <c r="R105" s="2" t="n">
+        <v>15.733878135681152</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-28 00:00:00</t>
+        </is>
+      </c>
+      <c r="B106" s="2" t="n">
+        <v>0.04847147688269615</v>
+      </c>
+      <c r="C106" s="2" t="n">
+        <v>0.3401836156845093</v>
+      </c>
+      <c r="D106" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>1.2871917486190796</v>
+      </c>
+      <c r="F106" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G106" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H106" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I106" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J106" s="2" t="n">
+        <v>50.89925003051758</v>
+      </c>
+      <c r="K106" s="2" t="n">
+        <v>-1.4134206771850586</v>
+      </c>
+      <c r="L106" s="2" t="n">
+        <v>1008.7892456054688</v>
+      </c>
+      <c r="M106" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N106" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O106" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P106" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q106" s="2" t="n">
+        <v>0.09356705844402313</v>
+      </c>
+      <c r="R106" s="2" t="n">
+        <v>15.79616641998291</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-28 01:00:00</t>
+        </is>
+      </c>
+      <c r="B107" s="2" t="n">
+        <v>0.05124465748667717</v>
+      </c>
+      <c r="C107" s="2" t="n">
+        <v>0.4226243793964386</v>
+      </c>
+      <c r="D107" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>1.3046220541000366</v>
+      </c>
+      <c r="F107" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G107" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H107" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I107" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J107" s="2" t="n">
+        <v>50.89925003051758</v>
+      </c>
+      <c r="K107" s="2" t="n">
+        <v>-1.4134190082550049</v>
+      </c>
+      <c r="L107" s="2" t="n">
+        <v>1008.9000244140625</v>
+      </c>
+      <c r="M107" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N107" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O107" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P107" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q107" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R107" s="2" t="n">
+        <v>15.682683944702148</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-28 02:00:00</t>
+        </is>
+      </c>
+      <c r="B108" s="2" t="n">
+        <v>0.05401783809065819</v>
+      </c>
+      <c r="C108" s="2" t="n">
+        <v>0.27275171875953674</v>
+      </c>
+      <c r="D108" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>1.291879653930664</v>
+      </c>
+      <c r="F108" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G108" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H108" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I108" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J108" s="2" t="n">
+        <v>50.89925765991211</v>
+      </c>
+      <c r="K108" s="2" t="n">
+        <v>-1.4134293794631958</v>
+      </c>
+      <c r="L108" s="2" t="n">
+        <v>1009.0108642578125</v>
+      </c>
+      <c r="M108" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N108" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O108" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P108" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q108" s="2" t="n">
+        <v>0.10000000149011612</v>
+      </c>
+      <c r="R108" s="2" t="n">
+        <v>15.569201469421387</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-28 03:00:00</t>
+        </is>
+      </c>
+      <c r="B109" s="2" t="n">
+        <v>0.012368611060082912</v>
+      </c>
+      <c r="C109" s="2" t="n">
+        <v>0.36615079641342163</v>
+      </c>
+      <c r="D109" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>1.2429639101028442</v>
+      </c>
+      <c r="F109" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G109" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H109" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I109" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J109" s="2" t="n">
+        <v>50.89925003051758</v>
+      </c>
+      <c r="K109" s="2" t="n">
+        <v>-1.413432240486145</v>
+      </c>
+      <c r="L109" s="2" t="n">
+        <v>1009.1216430664062</v>
+      </c>
+      <c r="M109" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N109" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O109" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P109" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q109" s="2" t="n">
+        <v>0.1306300312280655</v>
+      </c>
+      <c r="R109" s="2" t="n">
+        <v>15.542678833007812</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-28 04:00:00</t>
+        </is>
+      </c>
+      <c r="B110" s="2" t="n">
+        <v>0.040975116193294525</v>
+      </c>
+      <c r="C110" s="2" t="n">
+        <v>0.256955087184906</v>
+      </c>
+      <c r="D110" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>1.3607802391052246</v>
+      </c>
+      <c r="F110" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G110" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H110" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I110" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J110" s="2" t="n">
+        <v>50.899234771728516</v>
+      </c>
+      <c r="K110" s="2" t="n">
+        <v>-1.4134348630905151</v>
+      </c>
+      <c r="L110" s="2" t="n">
+        <v>1009.232421875</v>
+      </c>
+      <c r="M110" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N110" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O110" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P110" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q110" s="2" t="n">
+        <v>0.27362093329429626</v>
+      </c>
+      <c r="R110" s="2" t="n">
+        <v>15.43332290649414</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-28 05:00:00</t>
+        </is>
+      </c>
+      <c r="B111" s="2" t="n">
+        <v>0.06958162039518356</v>
+      </c>
+      <c r="C111" s="2" t="n">
+        <v>0.33631765842437744</v>
+      </c>
+      <c r="D111" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>1.3954899311065674</v>
+      </c>
+      <c r="F111" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G111" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H111" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I111" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J111" s="2" t="n">
+        <v>50.89924240112305</v>
+      </c>
+      <c r="K111" s="2" t="n">
+        <v>-1.4134376049041748</v>
+      </c>
+      <c r="L111" s="2" t="n">
+        <v>1009.34326171875</v>
+      </c>
+      <c r="M111" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N111" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O111" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P111" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q111" s="2" t="n">
+        <v>0.10000000149011612</v>
+      </c>
+      <c r="R111" s="2" t="n">
+        <v>15.555684089660645</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-28 06:00:00</t>
+        </is>
+      </c>
+      <c r="B112" s="2" t="n">
+        <v>0.0981881320476532</v>
+      </c>
+      <c r="C112" s="2" t="n">
+        <v>0.3983801603317261</v>
+      </c>
+      <c r="D112" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>1.3244024515151978</v>
+      </c>
+      <c r="F112" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G112" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H112" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I112" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J112" s="2" t="n">
+        <v>50.89924240112305</v>
+      </c>
+      <c r="K112" s="2" t="n">
+        <v>-1.4134303331375122</v>
+      </c>
+      <c r="L112" s="2" t="n">
+        <v>1009.4540405273438</v>
+      </c>
+      <c r="M112" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N112" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O112" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P112" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q112" s="2" t="n">
+        <v>0.2899429202079773</v>
+      </c>
+      <c r="R112" s="2" t="n">
+        <v>15.702547073364258</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-28 07:00:00</t>
+        </is>
+      </c>
+      <c r="B113" s="2" t="n">
+        <v>0.12679463624954224</v>
+      </c>
+      <c r="C113" s="2" t="n">
+        <v>0.40511974692344666</v>
+      </c>
+      <c r="D113" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>1.3508118391036987</v>
+      </c>
+      <c r="F113" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G113" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H113" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I113" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J113" s="2" t="n">
+        <v>50.89925765991211</v>
+      </c>
+      <c r="K113" s="2" t="n">
+        <v>-1.4134317636489868</v>
+      </c>
+      <c r="L113" s="2" t="n">
+        <v>1009.7734985351562</v>
+      </c>
+      <c r="M113" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N113" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O113" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P113" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q113" s="2" t="n">
+        <v>0.10000000149011612</v>
+      </c>
+      <c r="R113" s="2" t="n">
+        <v>16.19147491455078</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-28 08:00:00</t>
+        </is>
+      </c>
+      <c r="B114" s="2" t="n">
+        <v>0.15540114045143127</v>
+      </c>
+      <c r="C114" s="2" t="n">
+        <v>0.4231158196926117</v>
+      </c>
+      <c r="D114" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>1.5543285608291626</v>
+      </c>
+      <c r="F114" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G114" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H114" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I114" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J114" s="2" t="n">
+        <v>50.89925765991211</v>
+      </c>
+      <c r="K114" s="2" t="n">
+        <v>-1.4134336709976196</v>
+      </c>
+      <c r="L114" s="2" t="n">
+        <v>1010.2408447265625</v>
+      </c>
+      <c r="M114" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N114" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O114" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P114" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q114" s="2" t="n">
+        <v>0.07129384577274323</v>
+      </c>
+      <c r="R114" s="2" t="n">
+        <v>16.21296501159668</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-28 09:00:00</t>
+        </is>
+      </c>
+      <c r="B115" s="2" t="n">
+        <v>0.1840076446533203</v>
+      </c>
+      <c r="C115" s="2" t="n">
+        <v>0.4318094849586487</v>
+      </c>
+      <c r="D115" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>1.498923420906067</v>
+      </c>
+      <c r="F115" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G115" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H115" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I115" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J115" s="2" t="n">
+        <v>50.89924240112305</v>
+      </c>
+      <c r="K115" s="2" t="n">
+        <v>-1.4134315252304077</v>
+      </c>
+      <c r="L115" s="2" t="n">
+        <v>1010.7081909179688</v>
+      </c>
+      <c r="M115" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N115" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O115" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P115" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q115" s="2" t="n">
+        <v>0.013382621109485626</v>
+      </c>
+      <c r="R115" s="2" t="n">
+        <v>16.95854949951172</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-28 10:00:00</t>
+        </is>
+      </c>
+      <c r="B116" s="2" t="n">
+        <v>0.799624502658844</v>
+      </c>
+      <c r="C116" s="2" t="n">
+        <v>0.4166346788406372</v>
+      </c>
+      <c r="D116" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>1.4247844219207764</v>
+      </c>
+      <c r="F116" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G116" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H116" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I116" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J116" s="2" t="n">
+        <v>50.89924240112305</v>
+      </c>
+      <c r="K116" s="2" t="n">
+        <v>-1.4134396314620972</v>
+      </c>
+      <c r="L116" s="2" t="n">
+        <v>1011.175537109375</v>
+      </c>
+      <c r="M116" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N116" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O116" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P116" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q116" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R116" s="2" t="n">
+        <v>17.41655731201172</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-28 11:00:00</t>
+        </is>
+      </c>
+      <c r="B117" s="2" t="n">
+        <v>0.015275775454938412</v>
+      </c>
+      <c r="C117" s="2" t="n">
+        <v>0.29929742217063904</v>
+      </c>
+      <c r="D117" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>1.4119956493377686</v>
+      </c>
+      <c r="F117" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G117" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H117" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I117" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J117" s="2" t="n">
+        <v>50.89925003051758</v>
+      </c>
+      <c r="K117" s="2" t="n">
+        <v>-1.4134329557418823</v>
+      </c>
+      <c r="L117" s="2" t="n">
+        <v>1011.6428833007812</v>
+      </c>
+      <c r="M117" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N117" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O117" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P117" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q117" s="2" t="n">
+        <v>0.10000000149011612</v>
+      </c>
+      <c r="R117" s="2" t="n">
+        <v>19.2142276763916</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-28 12:00:00</t>
+        </is>
+      </c>
+      <c r="B118" s="2" t="n">
+        <v>0.034390855580568314</v>
+      </c>
+      <c r="C118" s="2" t="n">
+        <v>0.35877725481987</v>
+      </c>
+      <c r="D118" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F118" s="2" t="n">
+        <v>1.5405552387237549</v>
+      </c>
+      <c r="G118" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H118" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I118" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J118" s="2" t="n">
+        <v>50.89925765991211</v>
+      </c>
+      <c r="K118" s="2" t="n">
+        <v>-1.4134304523468018</v>
+      </c>
+      <c r="L118" s="2" t="n">
+        <v>1012.1102294921875</v>
+      </c>
+      <c r="M118" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N118" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O118" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P118" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q118" s="2" t="n">
+        <v>0.10000000149011612</v>
+      </c>
+      <c r="R118" s="2" t="n">
+        <v>20.1341495513916</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-28 13:00:00</t>
+        </is>
+      </c>
+      <c r="B119" s="2" t="n">
+        <v>0.05350593477487564</v>
+      </c>
+      <c r="C119" s="2" t="n">
+        <v>0.4103682041168213</v>
+      </c>
+      <c r="D119" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F119" s="2" t="n">
+        <v>1.3544032573699951</v>
+      </c>
+      <c r="G119" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H119" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I119" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J119" s="2" t="n">
+        <v>50.89925765991211</v>
+      </c>
+      <c r="K119" s="2" t="n">
+        <v>-1.413411021232605</v>
+      </c>
+      <c r="L119" s="2" t="n">
+        <v>1012.5775756835938</v>
+      </c>
+      <c r="M119" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N119" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O119" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P119" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q119" s="2" t="n">
+        <v>0.10000000149011612</v>
+      </c>
+      <c r="R119" s="2" t="n">
+        <v>20.720382690429688</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-28 14:00:00</t>
+        </is>
+      </c>
+      <c r="B120" s="2" t="n">
+        <v>0.07262101769447327</v>
+      </c>
+      <c r="C120" s="2" t="n">
+        <v>0.304769366979599</v>
+      </c>
+      <c r="D120" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F120" s="2" t="n">
+        <v>1.3221733570098877</v>
+      </c>
+      <c r="G120" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H120" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I120" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J120" s="2" t="n">
+        <v>50.89925003051758</v>
+      </c>
+      <c r="K120" s="2" t="n">
+        <v>-1.4134132862091064</v>
+      </c>
+      <c r="L120" s="2" t="n">
+        <v>1013.044921875</v>
+      </c>
+      <c r="M120" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N120" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O120" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P120" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q120" s="2" t="n">
+        <v>0.10000000149011612</v>
+      </c>
+      <c r="R120" s="2" t="n">
+        <v>21.600000381469727</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-28 15:00:00</t>
+        </is>
+      </c>
+      <c r="B121" s="2" t="n">
+        <v>0.0917360931634903</v>
+      </c>
+      <c r="C121" s="2" t="n">
+        <v>0.3453114330768585</v>
+      </c>
+      <c r="D121" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F121" s="2" t="n">
+        <v>1.3702598810195923</v>
+      </c>
+      <c r="G121" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H121" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I121" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J121" s="2" t="n">
+        <v>50.89925765991211</v>
+      </c>
+      <c r="K121" s="2" t="n">
+        <v>-1.4134130477905273</v>
+      </c>
+      <c r="L121" s="2" t="n">
+        <v>1013.5122680664062</v>
+      </c>
+      <c r="M121" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N121" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O121" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P121" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q121" s="2" t="n">
+        <v>-0.2750753164291382</v>
+      </c>
+      <c r="R121" s="2" t="n">
+        <v>21.61602020263672</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-28 16:00:00</t>
+        </is>
+      </c>
+      <c r="B122" s="2" t="n">
+        <v>0.11085117608308792</v>
+      </c>
+      <c r="C122" s="2" t="n">
+        <v>0.400255024433136</v>
+      </c>
+      <c r="D122" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F122" s="2" t="n">
+        <v>1.4178481101989746</v>
+      </c>
+      <c r="G122" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H122" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I122" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J122" s="2" t="n">
+        <v>50.89925765991211</v>
+      </c>
+      <c r="K122" s="2" t="n">
+        <v>-1.413415551185608</v>
+      </c>
+      <c r="L122" s="2" t="n">
+        <v>1013.9796142578125</v>
+      </c>
+      <c r="M122" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N122" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O122" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P122" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q122" s="2" t="n">
+        <v>-0.12142742425203323</v>
+      </c>
+      <c r="R122" s="2" t="n">
+        <v>21.654499053955078</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-28 17:00:00</t>
+        </is>
+      </c>
+      <c r="B123" s="2" t="n">
+        <v>0.12996625900268555</v>
+      </c>
+      <c r="C123" s="2" t="n">
+        <v>0.3878239691257477</v>
+      </c>
+      <c r="D123" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F123" s="2" t="n">
+        <v>1.44395911693573</v>
+      </c>
+      <c r="G123" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H123" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I123" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J123" s="2" t="n">
+        <v>50.899269104003906</v>
+      </c>
+      <c r="K123" s="2" t="n">
+        <v>-1.4134209156036377</v>
+      </c>
+      <c r="L123" s="2" t="n">
+        <v>1014.4469604492188</v>
+      </c>
+      <c r="M123" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N123" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O123" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P123" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q123" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R123" s="2" t="n">
+        <v>21.34108543395996</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-28 18:00:00</t>
+        </is>
+      </c>
+      <c r="B124" s="2" t="n">
+        <v>0.14908133447170258</v>
+      </c>
+      <c r="C124" s="2" t="n">
+        <v>0.38847672939300537</v>
+      </c>
+      <c r="D124" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F124" s="2" t="n">
+        <v>1.4207402467727661</v>
+      </c>
+      <c r="G124" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H124" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I124" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J124" s="2" t="n">
+        <v>50.89925765991211</v>
+      </c>
+      <c r="K124" s="2" t="n">
+        <v>-1.41341233253479</v>
+      </c>
+      <c r="L124" s="2" t="n">
+        <v>1014.9142456054688</v>
+      </c>
+      <c r="M124" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N124" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O124" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P124" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q124" s="2" t="n">
+        <v>0.01760953478515148</v>
+      </c>
+      <c r="R124" s="2" t="n">
+        <v>20.559280395507812</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-28 19:00:00</t>
+        </is>
+      </c>
+      <c r="B125" s="2" t="n">
+        <v>0.1681964099407196</v>
+      </c>
+      <c r="C125" s="2" t="n">
+        <v>0.4806618094444275</v>
+      </c>
+      <c r="D125" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F125" s="2" t="n">
+        <v>1.403213381767273</v>
+      </c>
+      <c r="G125" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H125" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I125" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J125" s="2" t="n">
+        <v>50.89927673339844</v>
+      </c>
+      <c r="K125" s="2" t="n">
+        <v>-1.4133950471878052</v>
+      </c>
+      <c r="L125" s="2" t="n">
+        <v>1015.381591796875</v>
+      </c>
+      <c r="M125" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N125" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O125" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P125" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q125" s="2" t="n">
+        <v>0.27827584743499756</v>
+      </c>
+      <c r="R125" s="2" t="n">
+        <v>19.325763702392578</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-28 20:00:00</t>
+        </is>
+      </c>
+      <c r="B126" s="2" t="n">
+        <v>0.18731150031089783</v>
+      </c>
+      <c r="C126" s="2" t="n">
+        <v>0.4438644051551819</v>
+      </c>
+      <c r="D126" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F126" s="2" t="n">
+        <v>1.3917734622955322</v>
+      </c>
+      <c r="G126" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H126" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I126" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J126" s="2" t="n">
+        <v>50.89925765991211</v>
+      </c>
+      <c r="K126" s="2" t="n">
+        <v>-1.4134067296981812</v>
+      </c>
+      <c r="L126" s="2" t="n">
+        <v>1015.8489379882812</v>
+      </c>
+      <c r="M126" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N126" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O126" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P126" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q126" s="2" t="n">
+        <v>0.3384864926338196</v>
+      </c>
+      <c r="R126" s="2" t="n">
+        <v>18.08732795715332</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-28 21:00:00</t>
+        </is>
+      </c>
+      <c r="B127" s="2" t="n">
+        <v>0.20642657577991486</v>
+      </c>
+      <c r="C127" s="2" t="n">
+        <v>0.4104052186012268</v>
+      </c>
+      <c r="D127" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F127" s="2" t="n">
+        <v>1.3342435359954834</v>
+      </c>
+      <c r="G127" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H127" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I127" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J127" s="2" t="n">
+        <v>50.89925003051758</v>
+      </c>
+      <c r="K127" s="2" t="n">
+        <v>-1.4134178161621094</v>
+      </c>
+      <c r="L127" s="2" t="n">
+        <v>1016.3162841796875</v>
+      </c>
+      <c r="M127" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N127" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O127" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P127" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q127" s="2" t="n">
+        <v>0.30000001192092896</v>
+      </c>
+      <c r="R127" s="2" t="n">
+        <v>16.848894119262695</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-28 22:00:00</t>
+        </is>
+      </c>
+      <c r="B128" s="2" t="n">
+        <v>0.008266078308224678</v>
+      </c>
+      <c r="C128" s="2" t="n">
+        <v>0.48028719425201416</v>
+      </c>
+      <c r="D128" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F128" s="2" t="n">
+        <v>1.2792408466339111</v>
+      </c>
+      <c r="G128" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H128" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I128" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J128" s="2" t="n">
+        <v>50.89924240112305</v>
+      </c>
+      <c r="K128" s="2" t="n">
+        <v>-1.4134174585342407</v>
+      </c>
+      <c r="L128" s="2" t="n">
+        <v>1016.7836303710938</v>
+      </c>
+      <c r="M128" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N128" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O128" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P128" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q128" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R128" s="2" t="n">
+        <v>15.849113464355469</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-28 23:00:00</t>
+        </is>
+      </c>
+      <c r="B129" s="2" t="n">
+        <v>0.024431400001049042</v>
+      </c>
+      <c r="C129" s="2" t="n">
+        <v>0.4515336751937866</v>
+      </c>
+      <c r="D129" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F129" s="2" t="n">
+        <v>1.2480888366699219</v>
+      </c>
+      <c r="G129" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H129" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I129" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J129" s="2" t="n">
+        <v>50.89924240112305</v>
+      </c>
+      <c r="K129" s="2" t="n">
+        <v>-1.4134149551391602</v>
+      </c>
+      <c r="L129" s="2" t="n">
+        <v>1017.2509765625</v>
+      </c>
+      <c r="M129" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N129" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O129" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P129" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q129" s="2" t="n">
+        <v>0.09447618573904037</v>
+      </c>
+      <c r="R129" s="2" t="n">
+        <v>15.112013816833496</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-29 00:00:00</t>
+        </is>
+      </c>
+      <c r="B130" s="2" t="n">
+        <v>0.040596719831228256</v>
+      </c>
+      <c r="C130" s="2" t="n">
+        <v>0.41146519780158997</v>
+      </c>
+      <c r="D130" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F130" s="2" t="n">
+        <v>1.2711576223373413</v>
+      </c>
+      <c r="G130" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H130" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I130" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J130" s="2" t="n">
+        <v>50.89925003051758</v>
+      </c>
+      <c r="K130" s="2" t="n">
+        <v>-1.4134153127670288</v>
+      </c>
+      <c r="L130" s="2" t="n">
+        <v>1017.5722045898438</v>
+      </c>
+      <c r="M130" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N130" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O130" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P130" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q130" s="2" t="n">
+        <v>0.10000000149011612</v>
+      </c>
+      <c r="R130" s="2" t="n">
+        <v>14.374914169311523</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-29 01:00:00</t>
+        </is>
+      </c>
+      <c r="B131" s="2" t="n">
+        <v>0.05676204338669777</v>
+      </c>
+      <c r="C131" s="2" t="n">
+        <v>0.46734702587127686</v>
+      </c>
+      <c r="D131" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F131" s="2" t="n">
+        <v>1.2895212173461914</v>
+      </c>
+      <c r="G131" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H131" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I131" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J131" s="2" t="n">
+        <v>50.89925003051758</v>
+      </c>
+      <c r="K131" s="2" t="n">
+        <v>-1.4134165048599243</v>
+      </c>
+      <c r="L131" s="2" t="n">
+        <v>1017.8762817382812</v>
+      </c>
+      <c r="M131" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N131" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O131" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P131" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q131" s="2" t="n">
+        <v>0.10000000149011612</v>
+      </c>
+      <c r="R131" s="2" t="n">
+        <v>13.842358589172363</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-29 02:00:00</t>
+        </is>
+      </c>
+      <c r="B132" s="2" t="n">
+        <v>0.07292736321687698</v>
+      </c>
+      <c r="C132" s="2" t="n">
+        <v>0.3453809916973114</v>
+      </c>
+      <c r="D132" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F132" s="2" t="n">
+        <v>1.217858076095581</v>
+      </c>
+      <c r="G132" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H132" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I132" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J132" s="2" t="n">
+        <v>50.89925003051758</v>
+      </c>
+      <c r="K132" s="2" t="n">
+        <v>-1.4134271144866943</v>
+      </c>
+      <c r="L132" s="2" t="n">
+        <v>1018.1803588867188</v>
+      </c>
+      <c r="M132" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N132" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O132" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P132" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q132" s="2" t="n">
+        <v>0.10000000149011612</v>
+      </c>
+      <c r="R132" s="2" t="n">
+        <v>13.52153491973877</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-29 03:00:00</t>
+        </is>
+      </c>
+      <c r="B133" s="2" t="n">
+        <v>0.0890926867723465</v>
+      </c>
+      <c r="C133" s="2" t="n">
+        <v>0.3440515398979187</v>
+      </c>
+      <c r="D133" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F133" s="2" t="n">
+        <v>1.3015611171722412</v>
+      </c>
+      <c r="G133" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H133" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I133" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J133" s="2" t="n">
+        <v>50.89925003051758</v>
+      </c>
+      <c r="K133" s="2" t="n">
+        <v>-1.413438320159912</v>
+      </c>
+      <c r="L133" s="2" t="n">
+        <v>1018.4844360351562</v>
+      </c>
+      <c r="M133" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N133" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O133" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P133" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q133" s="2" t="n">
+        <v>0.10000000149011612</v>
+      </c>
+      <c r="R133" s="2" t="n">
+        <v>13.518824577331543</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-29 04:00:00</t>
+        </is>
+      </c>
+      <c r="B134" s="2" t="n">
+        <v>0.10525801032781601</v>
+      </c>
+      <c r="C134" s="2" t="n">
+        <v>0.3564859926700592</v>
+      </c>
+      <c r="D134" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F134" s="2" t="n">
+        <v>1.2712661027908325</v>
+      </c>
+      <c r="G134" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H134" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I134" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J134" s="2" t="n">
+        <v>50.89924240112305</v>
+      </c>
+      <c r="K134" s="2" t="n">
+        <v>-1.4134366512298584</v>
+      </c>
+      <c r="L134" s="2" t="n">
+        <v>1018.7885131835938</v>
+      </c>
+      <c r="M134" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N134" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O134" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P134" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q134" s="2" t="n">
+        <v>-0.10000000149011612</v>
+      </c>
+      <c r="R134" s="2" t="n">
+        <v>12.2594633102417</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-29 05:00:00</t>
+        </is>
+      </c>
+      <c r="B135" s="2" t="n">
+        <v>0.12142332643270493</v>
+      </c>
+      <c r="C135" s="2" t="n">
+        <v>0.3731228709220886</v>
+      </c>
+      <c r="D135" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F135" s="2" t="n">
+        <v>1.2715740203857422</v>
+      </c>
+      <c r="G135" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H135" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I135" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J135" s="2" t="n">
+        <v>50.89925765991211</v>
+      </c>
+      <c r="K135" s="2" t="n">
+        <v>-1.413438320159912</v>
+      </c>
+      <c r="L135" s="2" t="n">
+        <v>1019.0925903320312</v>
+      </c>
+      <c r="M135" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N135" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O135" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P135" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q135" s="2" t="n">
+        <v>0.2933409512042999</v>
+      </c>
+      <c r="R135" s="2" t="n">
+        <v>12.462553977966309</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-29 06:00:00</t>
+        </is>
+      </c>
+      <c r="B136" s="2" t="n">
+        <v>0.13758864998817444</v>
+      </c>
+      <c r="C136" s="2" t="n">
+        <v>0.41550329327583313</v>
+      </c>
+      <c r="D136" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F136" s="2" t="n">
+        <v>1.3302316665649414</v>
+      </c>
+      <c r="G136" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H136" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I136" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J136" s="2" t="n">
+        <v>50.89925003051758</v>
+      </c>
+      <c r="K136" s="2" t="n">
+        <v>-1.4134372472763062</v>
+      </c>
+      <c r="L136" s="2" t="n">
+        <v>1019.3966674804688</v>
+      </c>
+      <c r="M136" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N136" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O136" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P136" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q136" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R136" s="2" t="n">
+        <v>13.791701316833496</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-29 07:00:00</t>
+        </is>
+      </c>
+      <c r="B137" s="2" t="n">
+        <v>0.15375396609306335</v>
+      </c>
+      <c r="C137" s="2" t="n">
+        <v>0.3903011977672577</v>
+      </c>
+      <c r="D137" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F137" s="2" t="n">
+        <v>1.2823468446731567</v>
+      </c>
+      <c r="G137" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H137" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I137" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J137" s="2" t="n">
+        <v>50.89925003051758</v>
+      </c>
+      <c r="K137" s="2" t="n">
+        <v>-1.4134340286254883</v>
+      </c>
+      <c r="L137" s="2" t="n">
+        <v>1019.7007446289062</v>
+      </c>
+      <c r="M137" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N137" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O137" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P137" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q137" s="2" t="n">
+        <v>0.10000000149011612</v>
+      </c>
+      <c r="R137" s="2" t="n">
+        <v>16.619375228881836</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-29 08:00:00</t>
+        </is>
+      </c>
+      <c r="B138" s="2" t="n">
+        <v>0.16991929709911346</v>
+      </c>
+      <c r="C138" s="2" t="n">
+        <v>0.4798666834831238</v>
+      </c>
+      <c r="D138" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F138" s="2" t="n">
+        <v>1.4186960458755493</v>
+      </c>
+      <c r="G138" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H138" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I138" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J138" s="2" t="n">
+        <v>50.89925003051758</v>
+      </c>
+      <c r="K138" s="2" t="n">
+        <v>-1.4134316444396973</v>
+      </c>
+      <c r="L138" s="2" t="n">
+        <v>1020.0048217773438</v>
+      </c>
+      <c r="M138" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N138" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O138" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P138" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q138" s="2" t="n">
+        <v>0.4000000059604645</v>
+      </c>
+      <c r="R138" s="2" t="n">
+        <v>16.151796340942383</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-29 09:00:00</t>
+        </is>
+      </c>
+      <c r="B139" s="2" t="n">
+        <v>0.18608461320400238</v>
+      </c>
+      <c r="C139" s="2" t="n">
+        <v>0.028470762073993683</v>
+      </c>
+      <c r="D139" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F139" s="2" t="n">
+        <v>0.6199742555618286</v>
+      </c>
+      <c r="G139" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H139" s="2" t="n">
+        <v>2.0298001766204834</v>
+      </c>
+      <c r="I139" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J139" s="2" t="n">
+        <v>50.89924240112305</v>
+      </c>
+      <c r="K139" s="2" t="n">
+        <v>-1.4134324789047241</v>
+      </c>
+      <c r="L139" s="2" t="n">
+        <v>1020.3088989257812</v>
+      </c>
+      <c r="M139" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N139" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O139" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P139" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q139" s="2" t="n">
+        <v>0.4000000059604645</v>
+      </c>
+      <c r="R139" s="2" t="n">
+        <v>17.63614273071289</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-29 10:00:00</t>
+        </is>
+      </c>
+      <c r="B140" s="2" t="n">
+        <v>0.2022499293088913</v>
+      </c>
+      <c r="C140" s="2" t="n">
+        <v>0.3396199345588684</v>
+      </c>
+      <c r="D140" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F140" s="2" t="n">
+        <v>1.3330984115600586</v>
+      </c>
+      <c r="G140" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H140" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I140" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J140" s="2" t="n">
+        <v>50.899234771728516</v>
+      </c>
+      <c r="K140" s="2" t="n">
+        <v>-1.4134362936019897</v>
+      </c>
+      <c r="L140" s="2" t="n">
+        <v>1020.6129760742188</v>
+      </c>
+      <c r="M140" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N140" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O140" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P140" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q140" s="2" t="n">
+        <v>0.048090528696775436</v>
+      </c>
+      <c r="R140" s="2" t="n">
+        <v>19.605602264404297</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-29 11:00:00</t>
+        </is>
+      </c>
+      <c r="B141" s="2" t="n">
+        <v>0.18290270864963531</v>
+      </c>
+      <c r="C141" s="2" t="n">
+        <v>0.0038653197698295116</v>
+      </c>
+      <c r="D141" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F141" s="2" t="n">
+        <v>1.3580772876739502</v>
+      </c>
+      <c r="G141" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H141" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I141" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J141" s="2" t="n">
+        <v>50.89924240112305</v>
+      </c>
+      <c r="K141" s="2" t="n">
+        <v>-1.4134361743927002</v>
+      </c>
+      <c r="L141" s="2" t="n">
+        <v>1020.9024047851562</v>
+      </c>
+      <c r="M141" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N141" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O141" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P141" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q141" s="2" t="n">
+        <v>0.042144522070884705</v>
+      </c>
+      <c r="R141" s="2" t="n">
+        <v>19.40487289428711</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-29 12:00:00</t>
+        </is>
+      </c>
+      <c r="B142" s="2" t="n">
+        <v>0.017315853387117386</v>
+      </c>
+      <c r="C142" s="2" t="n">
+        <v>0.46782395243644714</v>
+      </c>
+      <c r="D142" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F142" s="2" t="n">
+        <v>1.3910247087478638</v>
+      </c>
+      <c r="G142" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H142" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I142" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J142" s="2" t="n">
+        <v>50.89925765991211</v>
+      </c>
+      <c r="K142" s="2" t="n">
+        <v>-1.4134429693222046</v>
+      </c>
+      <c r="L142" s="2" t="n">
+        <v>1020.9445190429688</v>
+      </c>
+      <c r="M142" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N142" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O142" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P142" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q142" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R142" s="2" t="n">
+        <v>19.87569236755371</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-29 13:00:00</t>
+        </is>
+      </c>
+      <c r="B143" s="2" t="n">
+        <v>0.04172906279563904</v>
+      </c>
+      <c r="C143" s="2" t="n">
+        <v>0.37353289127349854</v>
+      </c>
+      <c r="D143" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F143" s="2" t="n">
+        <v>1.2728605270385742</v>
+      </c>
+      <c r="G143" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H143" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I143" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J143" s="2" t="n">
+        <v>50.89925765991211</v>
+      </c>
+      <c r="K143" s="2" t="n">
+        <v>-1.4134352207183838</v>
+      </c>
+      <c r="L143" s="2" t="n">
+        <v>1020.9866333007812</v>
+      </c>
+      <c r="M143" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N143" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O143" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P143" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q143" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R143" s="2" t="n">
+        <v>18.614116668701172</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-29 14:00:00</t>
+        </is>
+      </c>
+      <c r="B144" s="2" t="n">
+        <v>0.06614226847887039</v>
+      </c>
+      <c r="C144" s="2" t="n">
+        <v>0.35139408707618713</v>
+      </c>
+      <c r="D144" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F144" s="2" t="n">
+        <v>1.2650442123413086</v>
+      </c>
+      <c r="G144" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H144" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I144" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J144" s="2" t="n">
+        <v>50.899269104003906</v>
+      </c>
+      <c r="K144" s="2" t="n">
+        <v>-1.413435459136963</v>
+      </c>
+      <c r="L144" s="2" t="n">
+        <v>1021.0287475585938</v>
+      </c>
+      <c r="M144" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N144" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O144" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P144" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q144" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R144" s="2" t="n">
+        <v>17.262136459350586</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-29 15:00:00</t>
+        </is>
+      </c>
+      <c r="B145" s="2" t="n">
+        <v>0.09055547416210175</v>
+      </c>
+      <c r="C145" s="2" t="n">
+        <v>0.31411418318748474</v>
+      </c>
+      <c r="D145" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F145" s="2" t="n">
+        <v>1.3146421909332275</v>
+      </c>
+      <c r="G145" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H145" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I145" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J145" s="2" t="n">
+        <v>50.899269104003906</v>
+      </c>
+      <c r="K145" s="2" t="n">
+        <v>-1.4134362936019897</v>
+      </c>
+      <c r="L145" s="2" t="n">
+        <v>1021.0708618164062</v>
+      </c>
+      <c r="M145" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N145" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O145" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P145" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q145" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R145" s="2" t="n">
+        <v>17.04130744934082</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-29 16:00:00</t>
+        </is>
+      </c>
+      <c r="B146" s="2" t="n">
+        <v>0.1149686872959137</v>
+      </c>
+      <c r="C146" s="2" t="n">
+        <v>0.42446574568748474</v>
+      </c>
+      <c r="D146" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F146" s="2" t="n">
+        <v>1.4355974197387695</v>
+      </c>
+      <c r="G146" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H146" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I146" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J146" s="2" t="n">
+        <v>50.89925765991211</v>
+      </c>
+      <c r="K146" s="2" t="n">
+        <v>-1.413417100906372</v>
+      </c>
+      <c r="L146" s="2" t="n">
+        <v>1021.1129760742188</v>
+      </c>
+      <c r="M146" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N146" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O146" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P146" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q146" s="2" t="n">
+        <v>0.10000000149011612</v>
+      </c>
+      <c r="R146" s="2" t="n">
+        <v>17.58434295654297</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-29 17:00:00</t>
+        </is>
+      </c>
+      <c r="B147" s="2" t="n">
+        <v>0.13938190042972565</v>
+      </c>
+      <c r="C147" s="2" t="n">
+        <v>0.3452695310115814</v>
+      </c>
+      <c r="D147" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F147" s="2" t="n">
+        <v>1.3797132968902588</v>
+      </c>
+      <c r="G147" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H147" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I147" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J147" s="2" t="n">
+        <v>50.89925003051758</v>
+      </c>
+      <c r="K147" s="2" t="n">
+        <v>-1.4134180545806885</v>
+      </c>
+      <c r="L147" s="2" t="n">
+        <v>1021.1550903320312</v>
+      </c>
+      <c r="M147" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N147" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O147" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P147" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q147" s="2" t="n">
+        <v>-0.24283260107040405</v>
+      </c>
+      <c r="R147" s="2" t="n">
+        <v>16.981420516967773</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-29 18:00:00</t>
+        </is>
+      </c>
+      <c r="B148" s="2" t="n">
+        <v>0.1637950986623764</v>
+      </c>
+      <c r="C148" s="2" t="n">
+        <v>0.47155773639678955</v>
+      </c>
+      <c r="D148" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F148" s="2" t="n">
+        <v>1.3313231468200684</v>
+      </c>
+      <c r="G148" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H148" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I148" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J148" s="2" t="n">
+        <v>50.89925765991211</v>
+      </c>
+      <c r="K148" s="2" t="n">
+        <v>-1.4134166240692139</v>
+      </c>
+      <c r="L148" s="2" t="n">
+        <v>1021.1972045898438</v>
+      </c>
+      <c r="M148" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N148" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O148" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P148" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q148" s="2" t="n">
+        <v>0.006428755819797516</v>
+      </c>
+      <c r="R148" s="2" t="n">
+        <v>15.171026229858398</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-29 19:00:00</t>
+        </is>
+      </c>
+      <c r="B149" s="2" t="n">
+        <v>0.18820831179618835</v>
+      </c>
+      <c r="C149" s="2" t="n">
+        <v>0.4440932869911194</v>
+      </c>
+      <c r="D149" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F149" s="2" t="n">
+        <v>1.4375667572021484</v>
+      </c>
+      <c r="G149" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H149" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I149" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J149" s="2" t="n">
+        <v>50.899269104003906</v>
+      </c>
+      <c r="K149" s="2" t="n">
+        <v>-1.4133957624435425</v>
+      </c>
+      <c r="L149" s="2" t="n">
+        <v>1021.2393188476562</v>
+      </c>
+      <c r="M149" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N149" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O149" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P149" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q149" s="2" t="n">
+        <v>0.3412202000617981</v>
+      </c>
+      <c r="R149" s="2" t="n">
+        <v>14.859762191772461</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-29 20:00:00</t>
+        </is>
+      </c>
+      <c r="B150" s="2" t="n">
+        <v>0.04681497439742088</v>
+      </c>
+      <c r="C150" s="2" t="n">
+        <v>0.5658972263336182</v>
+      </c>
+      <c r="D150" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F150" s="2" t="n">
+        <v>1.3696527481079102</v>
+      </c>
+      <c r="G150" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H150" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I150" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J150" s="2" t="n">
+        <v>50.899269104003906</v>
+      </c>
+      <c r="K150" s="2" t="n">
+        <v>-1.4134083986282349</v>
+      </c>
+      <c r="L150" s="2" t="n">
+        <v>1021.281494140625</v>
+      </c>
+      <c r="M150" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N150" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O150" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P150" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q150" s="2" t="n">
+        <v>0.27501678466796875</v>
+      </c>
+      <c r="R150" s="2" t="n">
+        <v>14.421758651733398</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-29 21:00:00</t>
+        </is>
+      </c>
+      <c r="B151" s="2" t="n">
+        <v>0.1448444426059723</v>
+      </c>
+      <c r="C151" s="2" t="n">
+        <v>0.4309602677822113</v>
+      </c>
+      <c r="D151" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F151" s="2" t="n">
+        <v>1.294176697731018</v>
+      </c>
+      <c r="G151" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H151" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I151" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J151" s="2" t="n">
+        <v>50.89925765991211</v>
+      </c>
+      <c r="K151" s="2" t="n">
+        <v>-1.4134141206741333</v>
+      </c>
+      <c r="L151" s="2" t="n">
+        <v>1021.3236083984375</v>
+      </c>
+      <c r="M151" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N151" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O151" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P151" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q151" s="2" t="n">
+        <v>0.16561031341552734</v>
+      </c>
+      <c r="R151" s="2" t="n">
+        <v>14.00374984741211</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-29 22:00:00</t>
+        </is>
+      </c>
+      <c r="B152" s="2" t="n">
+        <v>0.03093365952372551</v>
+      </c>
+      <c r="C152" s="2" t="n">
+        <v>0.41547369956970215</v>
+      </c>
+      <c r="D152" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F152" s="2" t="n">
+        <v>1.266661286354065</v>
+      </c>
+      <c r="G152" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H152" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I152" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J152" s="2" t="n">
+        <v>50.89925003051758</v>
+      </c>
+      <c r="K152" s="2" t="n">
+        <v>-1.4134119749069214</v>
+      </c>
+      <c r="L152" s="2" t="n">
+        <v>1021.36572265625</v>
+      </c>
+      <c r="M152" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N152" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O152" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P152" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q152" s="2" t="n">
+        <v>0.4571169316768646</v>
+      </c>
+      <c r="R152" s="2" t="n">
+        <v>13.783571243286133</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-29 23:00:00</t>
+        </is>
+      </c>
+      <c r="B153" s="2" t="n">
+        <v>0.1253238171339035</v>
+      </c>
+      <c r="C153" s="2" t="n">
+        <v>0.3881526291370392</v>
+      </c>
+      <c r="D153" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F153" s="2" t="n">
+        <v>1.253345012664795</v>
+      </c>
+      <c r="G153" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H153" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I153" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J153" s="2" t="n">
+        <v>50.89925003051758</v>
+      </c>
+      <c r="K153" s="2" t="n">
+        <v>-1.4134081602096558</v>
+      </c>
+      <c r="L153" s="2" t="n">
+        <v>1021.4078369140625</v>
+      </c>
+      <c r="M153" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N153" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O153" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P153" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q153" s="2" t="n">
+        <v>0.037958983331918716</v>
+      </c>
+      <c r="R153" s="2" t="n">
+        <v>13.344642639160156</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-30 00:00:00</t>
+        </is>
+      </c>
+      <c r="B154" s="2" t="n">
+        <v>0.18179376423358917</v>
+      </c>
+      <c r="C154" s="2" t="n">
+        <v>0.19075877964496613</v>
+      </c>
+      <c r="D154" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F154" s="2" t="n">
+        <v>1.2749648094177246</v>
+      </c>
+      <c r="G154" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H154" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I154" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J154" s="2" t="n">
+        <v>50.89925003051758</v>
+      </c>
+      <c r="K154" s="2" t="n">
+        <v>-1.4134163856506348</v>
+      </c>
+      <c r="L154" s="2" t="n">
+        <v>1021.449951171875</v>
+      </c>
+      <c r="M154" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N154" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O154" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P154" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q154" s="2" t="n">
+        <v>-0.06611727923154831</v>
+      </c>
+      <c r="R154" s="2" t="n">
+        <v>13.186519622802734</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-30 01:00:00</t>
+        </is>
+      </c>
+      <c r="B155" s="2" t="n">
+        <v>0.19762499630451202</v>
+      </c>
+      <c r="C155" s="2" t="n">
+        <v>0.22008571028709412</v>
+      </c>
+      <c r="D155" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F155" s="2" t="n">
+        <v>1.3363573551177979</v>
+      </c>
+      <c r="G155" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H155" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I155" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J155" s="2" t="n">
+        <v>50.89925003051758</v>
+      </c>
+      <c r="K155" s="2" t="n">
+        <v>-1.4134206771850586</v>
+      </c>
+      <c r="L155" s="2" t="n">
+        <v>1021.4920654296875</v>
+      </c>
+      <c r="M155" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N155" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O155" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P155" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q155" s="2" t="n">
+        <v>0.01173479575663805</v>
+      </c>
+      <c r="R155" s="2" t="n">
+        <v>12.99001407623291</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-30 02:00:00</t>
+        </is>
+      </c>
+      <c r="B156" s="2" t="n">
+        <v>0.018785351887345314</v>
+      </c>
+      <c r="C156" s="2" t="n">
+        <v>0.43841680884361267</v>
+      </c>
+      <c r="D156" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F156" s="2" t="n">
+        <v>1.2331478595733643</v>
+      </c>
+      <c r="G156" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H156" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I156" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J156" s="2" t="n">
+        <v>50.89925003051758</v>
+      </c>
+      <c r="K156" s="2" t="n">
+        <v>-1.4134323596954346</v>
+      </c>
+      <c r="L156" s="2" t="n">
+        <v>1021.3567504882812</v>
+      </c>
+      <c r="M156" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N156" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O156" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P156" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q156" s="2" t="n">
+        <v>0.00906276609748602</v>
+      </c>
+      <c r="R156" s="2" t="n">
+        <v>12.127132415771484</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-30 03:00:00</t>
+        </is>
+      </c>
+      <c r="B157" s="2" t="n">
+        <v>0.038856733590364456</v>
+      </c>
+      <c r="C157" s="2" t="n">
+        <v>0.41147905588150024</v>
+      </c>
+      <c r="D157" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F157" s="2" t="n">
+        <v>1.234527826309204</v>
+      </c>
+      <c r="G157" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H157" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I157" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J157" s="2" t="n">
+        <v>50.89925003051758</v>
+      </c>
+      <c r="K157" s="2" t="n">
+        <v>-1.413434386253357</v>
+      </c>
+      <c r="L157" s="2" t="n">
+        <v>1021.1802978515625</v>
+      </c>
+      <c r="M157" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N157" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O157" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P157" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q157" s="2" t="n">
+        <v>0.036900684237480164</v>
+      </c>
+      <c r="R157" s="2" t="n">
+        <v>11.960755348205566</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-30 04:00:00</t>
+        </is>
+      </c>
+      <c r="B158" s="2" t="n">
+        <v>0.05892811343073845</v>
+      </c>
+      <c r="C158" s="2" t="n">
+        <v>0.36416399478912354</v>
+      </c>
+      <c r="D158" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F158" s="2" t="n">
+        <v>1.2558807134628296</v>
+      </c>
+      <c r="G158" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H158" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I158" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J158" s="2" t="n">
+        <v>50.89924240112305</v>
+      </c>
+      <c r="K158" s="2" t="n">
+        <v>-1.4134342670440674</v>
+      </c>
+      <c r="L158" s="2" t="n">
+        <v>1021.0038452148438</v>
+      </c>
+      <c r="M158" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N158" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O158" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P158" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q158" s="2" t="n">
+        <v>0.06473860889673233</v>
+      </c>
+      <c r="R158" s="2" t="n">
+        <v>12.033137321472168</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-30 05:00:00</t>
+        </is>
+      </c>
+      <c r="B159" s="2" t="n">
+        <v>0.07899948954582214</v>
+      </c>
+      <c r="C159" s="2" t="n">
+        <v>0.3658842444419861</v>
+      </c>
+      <c r="D159" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F159" s="2" t="n">
+        <v>1.324545979499817</v>
+      </c>
+      <c r="G159" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H159" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I159" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J159" s="2" t="n">
+        <v>50.89925003051758</v>
+      </c>
+      <c r="K159" s="2" t="n">
+        <v>-1.4134286642074585</v>
+      </c>
+      <c r="L159" s="2" t="n">
+        <v>1020.827392578125</v>
+      </c>
+      <c r="M159" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N159" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O159" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P159" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q159" s="2" t="n">
+        <v>0.0925765261054039</v>
+      </c>
+      <c r="R159" s="2" t="n">
+        <v>12.390195846557617</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-30 06:00:00</t>
+        </is>
+      </c>
+      <c r="B160" s="2" t="n">
+        <v>0.09907086938619614</v>
+      </c>
+      <c r="C160" s="2" t="n">
+        <v>0.40607690811157227</v>
+      </c>
+      <c r="D160" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F160" s="2" t="n">
+        <v>1.2963001728057861</v>
+      </c>
+      <c r="G160" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H160" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I160" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J160" s="2" t="n">
+        <v>50.89925765991211</v>
+      </c>
+      <c r="K160" s="2" t="n">
+        <v>-1.4134342670440674</v>
+      </c>
+      <c r="L160" s="2" t="n">
+        <v>1020.6509399414062</v>
+      </c>
+      <c r="M160" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N160" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O160" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P160" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q160" s="2" t="n">
+        <v>-0.060013167560100555</v>
+      </c>
+      <c r="R160" s="2" t="n">
+        <v>13.177490234375</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-30 07:00:00</t>
+        </is>
+      </c>
+      <c r="B161" s="2" t="n">
+        <v>0.11914224922657013</v>
+      </c>
+      <c r="C161" s="2" t="n">
+        <v>0.35620051622390747</v>
+      </c>
+      <c r="D161" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F161" s="2" t="n">
+        <v>1.321602463722229</v>
+      </c>
+      <c r="G161" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H161" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I161" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J161" s="2" t="n">
+        <v>50.89925003051758</v>
+      </c>
+      <c r="K161" s="2" t="n">
+        <v>-1.4134323596954346</v>
+      </c>
+      <c r="L161" s="2" t="n">
+        <v>1020.4744262695312</v>
+      </c>
+      <c r="M161" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N161" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O161" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P161" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q161" s="2" t="n">
+        <v>-0.012036812491714954</v>
+      </c>
+      <c r="R161" s="2" t="n">
+        <v>14.615046501159668</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-30 08:00:00</t>
+        </is>
+      </c>
+      <c r="B162" s="2" t="n">
+        <v>0.13921363651752472</v>
+      </c>
+      <c r="C162" s="2" t="n">
+        <v>0.4624806046485901</v>
+      </c>
+      <c r="D162" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F162" s="2" t="n">
+        <v>1.3610845804214478</v>
+      </c>
+      <c r="G162" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H162" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I162" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J162" s="2" t="n">
+        <v>50.89925765991211</v>
+      </c>
+      <c r="K162" s="2" t="n">
+        <v>-1.4134305715560913</v>
+      </c>
+      <c r="L162" s="2" t="n">
+        <v>1020.2979736328125</v>
+      </c>
+      <c r="M162" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N162" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O162" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P162" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q162" s="2" t="n">
+        <v>0.10000000149011612</v>
+      </c>
+      <c r="R162" s="2" t="n">
+        <v>15.541241645812988</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="inlineStr">
+        <is>
+          <t>2023-04-30 09:00:00</t>
+        </is>
+      </c>
+      <c r="B163" s="2" t="n">
+        <v>0.15928500890731812</v>
+      </c>
+      <c r="C163" s="2" t="n">
+        <v>0.3173618018627167</v>
+      </c>
+      <c r="D163" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F163" s="2" t="n">
+        <v>1.3801931142807007</v>
+      </c>
+      <c r="G163" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H163" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I163" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J163" s="2" t="n">
+        <v>50.89924240112305</v>
+      </c>
+      <c r="K163" s="2" t="n">
+        <v>-1.413429617881775</v>
+      </c>
+      <c r="L163" s="2" t="n">
+        <v>1020.1215209960938</v>
+      </c>
+      <c r="M163" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N163" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O163" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P163" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q163" s="2" t="n">
+        <v>-2.0092078557354398E-5</v>
+      </c>
+      <c r="R163" s="2" t="n">
+        <v>16.823280334472656</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="inlineStr">
+        <is>
           <t>2023-04-30 10:00:00</t>
         </is>
       </c>
-      <c r="B83" s="2" t="n">
+      <c r="B164" s="2" t="n">
         <v>0.1793563961982727</v>
       </c>
-      <c r="C83" s="2" t="n">
+      <c r="C164" s="2" t="n">
         <v>0.4600645899772644</v>
       </c>
-      <c r="D83" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E83" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F83" s="2" t="n">
+      <c r="D164" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F164" s="2" t="n">
         <v>1.3918523788452148</v>
       </c>
-      <c r="G83" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H83" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I83" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J83" s="2" t="n">
+      <c r="G164" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H164" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I164" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J164" s="2" t="n">
         <v>50.89924240112305</v>
       </c>
-      <c r="K83" s="2" t="n">
+      <c r="K164" s="2" t="n">
         <v>-1.4134339094161987</v>
       </c>
-      <c r="L83" s="2" t="n">
+      <c r="L164" s="2" t="n">
         <v>1019.945068359375</v>
       </c>
-      <c r="M83" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N83" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O83" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P83" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q83" s="2" t="n">
+      <c r="M164" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N164" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O164" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P164" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q164" s="2" t="n">
         <v>-0.016667598858475685</v>
       </c>
-      <c r="R83" s="2" t="n">
+      <c r="R164" s="2" t="n">
         <v>17.322694778442383</v>
       </c>
     </row>
